--- a/deployment/Omaha_Cal_Info_CP03ISSM_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CP03ISSM_00003.xlsx
@@ -864,12 +864,6 @@
     <t>N00757</t>
   </si>
   <si>
-    <t>CP03ISSM-00003-SBD11-HYDGN</t>
-  </si>
-  <si>
-    <t>CP03ISSM-00003-SBD12-HYDGN</t>
-  </si>
-  <si>
     <t>R00024</t>
   </si>
   <si>
@@ -904,6 +898,12 @@
   </si>
   <si>
     <t>R00035</t>
+  </si>
+  <si>
+    <t>CP03ISSM-00003-HYDGN1</t>
+  </si>
+  <si>
+    <t>CP03ISSM-00003-HYDGN2</t>
   </si>
 </sst>
 </file>
@@ -2661,8 +2661,8 @@
   <dimension ref="A1:U365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E185" sqref="E185:E190"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
@@ -2672,7 +2672,7 @@
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="43" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="62.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="7" customWidth="1"/>
@@ -2739,7 +2739,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="144" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F3" s="85">
         <v>11</v>
@@ -2766,10 +2766,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="F5" s="74" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="F5" s="147" t="s">
+        <v>230</v>
       </c>
       <c r="I5" s="66" t="s">
         <v>138</v>
@@ -2789,10 +2789,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="145" t="s">
-        <v>222</v>
-      </c>
-      <c r="F6" s="74" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="F6" s="147" t="s">
+        <v>231</v>
       </c>
       <c r="I6" s="66" t="s">
         <v>138</v>
@@ -7087,7 +7087,7 @@
         <v>3</v>
       </c>
       <c r="E181" s="146" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F181" s="66" t="s">
         <v>183</v>
@@ -7110,7 +7110,7 @@
         <v>3</v>
       </c>
       <c r="E182" s="146" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F182" s="66" t="s">
         <v>184</v>
@@ -7133,7 +7133,7 @@
         <v>3</v>
       </c>
       <c r="E183" s="146" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F183" s="66" t="s">
         <v>185</v>
@@ -7166,7 +7166,7 @@
         <v>3</v>
       </c>
       <c r="E185" s="147" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F185" s="66" t="s">
         <v>186</v>
@@ -7203,7 +7203,7 @@
         <v>3</v>
       </c>
       <c r="E186" s="147" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F186" s="66" t="s">
         <v>187</v>
@@ -7240,7 +7240,7 @@
         <v>3</v>
       </c>
       <c r="E187" s="147" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F187" s="66" t="s">
         <v>188</v>
@@ -7277,7 +7277,7 @@
         <v>3</v>
       </c>
       <c r="E188" s="147" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F188" s="66" t="s">
         <v>189</v>
@@ -7314,7 +7314,7 @@
         <v>3</v>
       </c>
       <c r="E189" s="147" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F189" s="66" t="s">
         <v>190</v>
@@ -7351,7 +7351,7 @@
         <v>3</v>
       </c>
       <c r="E190" s="147" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F190" s="66" t="s">
         <v>191</v>

--- a/deployment/Omaha_Cal_Info_CP03ISSM_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CP03ISSM_00003.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Desktop\Temp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14148" windowHeight="7344" tabRatio="766" activeTab="1"/>
+    <workbookView xWindow="14860" yWindow="1500" windowWidth="18740" windowHeight="13940" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -33,7 +28,12 @@
     <definedName name="acs256_2015_08_04_calData" localSheetId="5">'257_CC_tcarray'!$A$1:$AK$168</definedName>
     <definedName name="acs257_2015_08_20_calData" localSheetId="4">'257_CC_taarray'!$A$1:$AL$87</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -922,7 +922,7 @@
     <numFmt numFmtId="170" formatCode="0.0000000000000"/>
     <numFmt numFmtId="171" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2213,7 +2213,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -2284,7 +2284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2319,7 +2319,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2534,26 +2534,26 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13" style="55" customWidth="1"/>
     <col min="2" max="2" width="16" style="55" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="55" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" style="55" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="56" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="56" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="57" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="56" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" style="55" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" style="55" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" style="55" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" style="55" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="55" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" style="55" customWidth="1"/>
     <col min="13" max="13" width="12" style="55" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" style="55" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.6640625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="52" customFormat="1" ht="27.6">
+    <row r="1" spans="1:14" s="52" customFormat="1" ht="28">
       <c r="A1" s="51" t="s">
         <v>194</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.4">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>195</v>
       </c>
@@ -2633,18 +2633,18 @@
         <v>-70.88836666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:14" customFormat="1" ht="14.4"/>
-    <row r="5" spans="1:14" customFormat="1" ht="14.4"/>
-    <row r="6" spans="1:14" customFormat="1" ht="14.4"/>
-    <row r="7" spans="1:14" customFormat="1" ht="14.4"/>
-    <row r="8" spans="1:14" customFormat="1" ht="14.4"/>
-    <row r="9" spans="1:14" customFormat="1" ht="14.4"/>
-    <row r="10" spans="1:14" customFormat="1" ht="14.4"/>
-    <row r="11" spans="1:14" customFormat="1" ht="14.4"/>
-    <row r="12" spans="1:14" customFormat="1" ht="14.4"/>
-    <row r="13" spans="1:14" customFormat="1" ht="14.4"/>
-    <row r="14" spans="1:14" customFormat="1" ht="14.4"/>
-    <row r="15" spans="1:14" customFormat="1" ht="14.4"/>
+    <row r="4" spans="1:14" customFormat="1"/>
+    <row r="5" spans="1:14" customFormat="1"/>
+    <row r="6" spans="1:14" customFormat="1"/>
+    <row r="7" spans="1:14" customFormat="1"/>
+    <row r="8" spans="1:14" customFormat="1"/>
+    <row r="9" spans="1:14" customFormat="1"/>
+    <row r="10" spans="1:14" customFormat="1"/>
+    <row r="11" spans="1:14" customFormat="1"/>
+    <row r="12" spans="1:14" customFormat="1"/>
+    <row r="13" spans="1:14" customFormat="1"/>
+    <row r="14" spans="1:14" customFormat="1"/>
+    <row r="15" spans="1:14" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2661,30 +2661,30 @@
   <dimension ref="A1:U365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="113" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="113" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="43" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="62.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="7" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="1"/>
-    <col min="11" max="11" width="4.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="27.6">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="28">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2725,7 +2725,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" ht="14.4">
+    <row r="3" spans="1:13">
       <c r="A3" s="8" t="s">
         <v>144</v>
       </c>
@@ -2752,7 +2752,7 @@
       <c r="C4" s="16"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:13" s="66" customFormat="1" ht="14.4">
+    <row r="5" spans="1:13" s="66" customFormat="1">
       <c r="A5" s="74" t="s">
         <v>143</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="66" customFormat="1" ht="14.4">
+    <row r="6" spans="1:13" s="66" customFormat="1">
       <c r="A6" s="74" t="s">
         <v>145</v>
       </c>
@@ -2804,7 +2804,7 @@
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
     </row>
-    <row r="8" spans="1:13" ht="14.4">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>112</v>
       </c>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="14.4">
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
         <v>112</v>
       </c>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="14.4">
+    <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
         <v>112</v>
       </c>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="14.4">
+    <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
         <v>112</v>
       </c>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="14.4">
+    <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
         <v>112</v>
       </c>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="14.4">
+    <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
         <v>112</v>
       </c>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="14.4">
+    <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
         <v>112</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14.4">
+    <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
         <v>112</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14.4">
+    <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
         <v>112</v>
       </c>
@@ -3059,7 +3059,7 @@
       <c r="H17" s="43"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="14.4">
+    <row r="18" spans="1:9">
       <c r="A18" s="10" t="s">
         <v>113</v>
       </c>
@@ -3090,7 +3090,7 @@
       <c r="F19" s="11"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="14.4">
+    <row r="20" spans="1:9">
       <c r="A20" s="10" t="s">
         <v>114</v>
       </c>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="14.4">
+    <row r="21" spans="1:9">
       <c r="A21" s="45" t="s">
         <v>114</v>
       </c>
@@ -3153,7 +3153,7 @@
       <c r="F22" s="40"/>
       <c r="H22" s="59"/>
     </row>
-    <row r="23" spans="1:9" ht="14.4">
+    <row r="23" spans="1:9">
       <c r="A23" s="10" t="s">
         <v>136</v>
       </c>
@@ -3180,7 +3180,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="14.4">
+    <row r="24" spans="1:9">
       <c r="A24" s="45" t="s">
         <v>136</v>
       </c>
@@ -3213,7 +3213,7 @@
       <c r="H25" s="43"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="14.4">
+    <row r="26" spans="1:9">
       <c r="A26" s="13" t="s">
         <v>115</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.4">
+    <row r="27" spans="1:9">
       <c r="A27" s="46" t="s">
         <v>115</v>
       </c>
@@ -3260,7 +3260,7 @@
       <c r="H27" s="110"/>
       <c r="I27" s="107"/>
     </row>
-    <row r="28" spans="1:9" ht="14.4">
+    <row r="28" spans="1:9">
       <c r="A28" s="46" t="s">
         <v>115</v>
       </c>
@@ -3283,7 +3283,7 @@
       <c r="H28" s="110"/>
       <c r="I28" s="107"/>
     </row>
-    <row r="29" spans="1:9" ht="14.4">
+    <row r="29" spans="1:9">
       <c r="A29" s="46" t="s">
         <v>115</v>
       </c>
@@ -3306,7 +3306,7 @@
       <c r="H29" s="110"/>
       <c r="I29" s="107"/>
     </row>
-    <row r="30" spans="1:9" ht="14.4">
+    <row r="30" spans="1:9">
       <c r="A30" s="46" t="s">
         <v>115</v>
       </c>
@@ -3329,7 +3329,7 @@
       <c r="H30" s="111"/>
       <c r="I30" s="107"/>
     </row>
-    <row r="31" spans="1:9" ht="14.4">
+    <row r="31" spans="1:9">
       <c r="A31" s="46" t="s">
         <v>115</v>
       </c>
@@ -3352,7 +3352,7 @@
       <c r="H31" s="111"/>
       <c r="I31" s="107"/>
     </row>
-    <row r="32" spans="1:9" s="42" customFormat="1" ht="14.4">
+    <row r="32" spans="1:9" s="42" customFormat="1">
       <c r="A32" s="46" t="s">
         <v>115</v>
       </c>
@@ -3385,7 +3385,7 @@
       <c r="H33" s="39"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="14.4">
+    <row r="34" spans="1:9">
       <c r="A34" s="13" t="s">
         <v>116</v>
       </c>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" ht="14.4">
+    <row r="35" spans="1:9">
       <c r="A35" s="46" t="s">
         <v>116</v>
       </c>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="14.4">
+    <row r="36" spans="1:9">
       <c r="A36" s="46" t="s">
         <v>116</v>
       </c>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="14.4">
+    <row r="37" spans="1:9">
       <c r="A37" s="46" t="s">
         <v>116</v>
       </c>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="14.4">
+    <row r="38" spans="1:9">
       <c r="A38" s="46" t="s">
         <v>116</v>
       </c>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="14.4">
+    <row r="39" spans="1:9">
       <c r="A39" s="46" t="s">
         <v>116</v>
       </c>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" s="42" customFormat="1" ht="14.4">
+    <row r="40" spans="1:9" s="42" customFormat="1">
       <c r="A40" s="46" t="s">
         <v>116</v>
       </c>
@@ -3586,7 +3586,7 @@
       <c r="H41" s="16"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" s="42" customFormat="1" ht="14.4">
+    <row r="42" spans="1:9" s="42" customFormat="1">
       <c r="A42" s="20" t="s">
         <v>117</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="42" customFormat="1" ht="14.4">
+    <row r="43" spans="1:9" s="42" customFormat="1">
       <c r="A43" s="48" t="s">
         <v>117</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="42" customFormat="1" ht="14.4">
+    <row r="44" spans="1:9" s="42" customFormat="1">
       <c r="A44" s="48" t="s">
         <v>117</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="42" customFormat="1" ht="14.4">
+    <row r="45" spans="1:9" s="42" customFormat="1">
       <c r="A45" s="48" t="s">
         <v>117</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="42" customFormat="1" ht="14.4">
+    <row r="46" spans="1:9" s="42" customFormat="1">
       <c r="A46" s="48" t="s">
         <v>117</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="42" customFormat="1" ht="14.4">
+    <row r="47" spans="1:9" s="42" customFormat="1">
       <c r="A47" s="48" t="s">
         <v>117</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="81" customFormat="1" ht="14.4">
+    <row r="48" spans="1:9" s="81" customFormat="1">
       <c r="A48" s="47" t="s">
         <v>117</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="84" customFormat="1" ht="14.4">
+    <row r="49" spans="1:9" s="84" customFormat="1">
       <c r="A49" s="47" t="s">
         <v>117</v>
       </c>
@@ -3804,7 +3804,7 @@
       <c r="G50" s="80"/>
       <c r="H50" s="80"/>
     </row>
-    <row r="51" spans="1:9" ht="14.4">
+    <row r="51" spans="1:9">
       <c r="A51" s="17" t="s">
         <v>118</v>
       </c>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" ht="14.4">
+    <row r="52" spans="1:9">
       <c r="A52" s="47" t="s">
         <v>118</v>
       </c>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" ht="14.4">
+    <row r="53" spans="1:9">
       <c r="A53" s="47" t="s">
         <v>118</v>
       </c>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" ht="14.4">
+    <row r="54" spans="1:9">
       <c r="A54" s="47" t="s">
         <v>118</v>
       </c>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" ht="14.4">
+    <row r="55" spans="1:9">
       <c r="A55" s="47" t="s">
         <v>118</v>
       </c>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" ht="14.4">
+    <row r="56" spans="1:9">
       <c r="A56" s="47" t="s">
         <v>118</v>
       </c>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" ht="14.4">
+    <row r="57" spans="1:9">
       <c r="A57" s="47" t="s">
         <v>118</v>
       </c>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" ht="14.4">
+    <row r="58" spans="1:9">
       <c r="A58" s="47" t="s">
         <v>118</v>
       </c>
@@ -4030,7 +4030,7 @@
       <c r="H59" s="40"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" ht="14.4">
+    <row r="60" spans="1:9">
       <c r="A60" s="20" t="s">
         <v>119</v>
       </c>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9" ht="14.4">
+    <row r="61" spans="1:9">
       <c r="A61" s="48" t="s">
         <v>119</v>
       </c>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9" ht="14.4">
+    <row r="62" spans="1:9">
       <c r="A62" s="48" t="s">
         <v>119</v>
       </c>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9" ht="14.4">
+    <row r="63" spans="1:9">
       <c r="A63" s="48" t="s">
         <v>119</v>
       </c>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" ht="14.4">
+    <row r="64" spans="1:9">
       <c r="A64" s="48" t="s">
         <v>119</v>
       </c>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" ht="14.4">
+    <row r="65" spans="1:9">
       <c r="A65" s="48" t="s">
         <v>119</v>
       </c>
@@ -4192,7 +4192,7 @@
       </c>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9" ht="14.4">
+    <row r="66" spans="1:9">
       <c r="A66" s="48" t="s">
         <v>119</v>
       </c>
@@ -4215,13 +4215,13 @@
         <v>107</v>
       </c>
       <c r="H66" s="125">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="14.4">
+    <row r="67" spans="1:9">
       <c r="A67" s="48" t="s">
         <v>119</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="14.4">
+    <row r="68" spans="1:9">
       <c r="A68" s="48" t="s">
         <v>119</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="14.4">
+    <row r="69" spans="1:9">
       <c r="A69" s="48" t="s">
         <v>119</v>
       </c>
@@ -4318,7 +4318,7 @@
       <c r="H70" s="23"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9" ht="14.4">
+    <row r="71" spans="1:9">
       <c r="A71" s="17" t="s">
         <v>120</v>
       </c>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" s="38" customFormat="1" ht="14.4">
+    <row r="72" spans="1:9" s="38" customFormat="1">
       <c r="A72" s="47" t="s">
         <v>120</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>-70.88836666666667</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="38" customFormat="1" ht="14.4">
+    <row r="73" spans="1:9" s="38" customFormat="1">
       <c r="A73" s="47" t="s">
         <v>120</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>1.2454059999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="38" customFormat="1" ht="14.4">
+    <row r="74" spans="1:9" s="38" customFormat="1">
       <c r="A74" s="47" t="s">
         <v>120</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>2.7786899999999998E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="38" customFormat="1" ht="14.4">
+    <row r="75" spans="1:9" s="38" customFormat="1">
       <c r="A75" s="47" t="s">
         <v>120</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>-1.4908049999999999E-6</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="38" customFormat="1" ht="14.4">
+    <row r="76" spans="1:9" s="38" customFormat="1">
       <c r="A76" s="47" t="s">
         <v>120</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>1.957949E-7</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="38" customFormat="1" ht="14.4">
+    <row r="77" spans="1:9" s="38" customFormat="1">
       <c r="A77" s="47" t="s">
         <v>120</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>80.793300000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="38" customFormat="1" ht="14.4">
+    <row r="78" spans="1:9" s="38" customFormat="1">
       <c r="A78" s="47" t="s">
         <v>120</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>-45.033259999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="38" customFormat="1" ht="14.4">
+    <row r="79" spans="1:9" s="38" customFormat="1">
       <c r="A79" s="47" t="s">
         <v>120</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>-1.5847249999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="38" customFormat="1" ht="14.4">
+    <row r="80" spans="1:9" s="38" customFormat="1">
       <c r="A80" s="47" t="s">
         <v>120</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>501948.3</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="38" customFormat="1" ht="14.4">
+    <row r="81" spans="1:9" s="38" customFormat="1">
       <c r="A81" s="47" t="s">
         <v>120</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>-348.35250000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="38" customFormat="1" ht="14.4">
+    <row r="82" spans="1:9" s="38" customFormat="1">
       <c r="A82" s="47" t="s">
         <v>120</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>-2.436299</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="38" customFormat="1" ht="14.4">
+    <row r="83" spans="1:9" s="38" customFormat="1">
       <c r="A83" s="47" t="s">
         <v>120</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>24.98875</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="38" customFormat="1" ht="14.4">
+    <row r="84" spans="1:9" s="38" customFormat="1">
       <c r="A84" s="47" t="s">
         <v>120</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>3.5E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="38" customFormat="1" ht="14.4">
+    <row r="85" spans="1:9" s="38" customFormat="1">
       <c r="A85" s="47" t="s">
         <v>120</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="38" customFormat="1" ht="14.4">
+    <row r="86" spans="1:9" s="38" customFormat="1">
       <c r="A86" s="47" t="s">
         <v>120</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>-6.0357479999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="38" customFormat="1" ht="14.4">
+    <row r="87" spans="1:9" s="38" customFormat="1">
       <c r="A87" s="47" t="s">
         <v>120</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>6.2842970000000003E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="38" customFormat="1" ht="14.4">
+    <row r="88" spans="1:9" s="38" customFormat="1">
       <c r="A88" s="47" t="s">
         <v>120</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>1.1095569999999999E-11</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="38" customFormat="1" ht="14.4">
+    <row r="89" spans="1:9" s="38" customFormat="1">
       <c r="A89" s="47" t="s">
         <v>120</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>-0.97491689999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="38" customFormat="1" ht="14.4">
+    <row r="90" spans="1:9" s="38" customFormat="1">
       <c r="A90" s="47" t="s">
         <v>120</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>0.15107590000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="38" customFormat="1" ht="14.4">
+    <row r="91" spans="1:9" s="38" customFormat="1">
       <c r="A91" s="47" t="s">
         <v>120</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>-1.3855289999999999E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="38" customFormat="1" ht="14.4">
+    <row r="92" spans="1:9" s="38" customFormat="1">
       <c r="A92" s="47" t="s">
         <v>120</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>3.3348359999999998E-5</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="38" customFormat="1" ht="14.4">
+    <row r="93" spans="1:9" s="38" customFormat="1">
       <c r="A93" s="47" t="s">
         <v>120</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="38" customFormat="1" ht="14.4">
+    <row r="94" spans="1:9" s="38" customFormat="1">
       <c r="A94" s="47" t="s">
         <v>120</v>
       </c>
@@ -4953,7 +4953,7 @@
       <c r="G95" s="39"/>
       <c r="H95" s="37"/>
     </row>
-    <row r="96" spans="1:9" ht="14.4">
+    <row r="96" spans="1:9">
       <c r="A96" s="17" t="s">
         <v>121</v>
       </c>
@@ -4980,7 +4980,7 @@
       </c>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9" ht="14.4">
+    <row r="97" spans="1:9">
       <c r="A97" s="47" t="s">
         <v>121</v>
       </c>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" s="42" customFormat="1" ht="14.4">
+    <row r="98" spans="1:9" s="42" customFormat="1">
       <c r="A98" s="47" t="s">
         <v>121</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>1.290022E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="42" customFormat="1" ht="14.4">
+    <row r="99" spans="1:9" s="42" customFormat="1">
       <c r="A99" s="47" t="s">
         <v>121</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>2.6727119999999998E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="42" customFormat="1" ht="14.4">
+    <row r="100" spans="1:9" s="42" customFormat="1">
       <c r="A100" s="47" t="s">
         <v>121</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>-6.1331679999999997E-7</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="42" customFormat="1" ht="14.4">
+    <row r="101" spans="1:9" s="42" customFormat="1">
       <c r="A101" s="47" t="s">
         <v>121</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>1.5880860000000001E-7</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="42" customFormat="1" ht="14.4">
+    <row r="102" spans="1:9" s="42" customFormat="1">
       <c r="A102" s="47" t="s">
         <v>121</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>164.5857</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="42" customFormat="1" ht="14.4">
+    <row r="103" spans="1:9" s="42" customFormat="1">
       <c r="A103" s="47" t="s">
         <v>121</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>-64.116370000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="42" customFormat="1" ht="14.4">
+    <row r="104" spans="1:9" s="42" customFormat="1">
       <c r="A104" s="47" t="s">
         <v>121</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>-2.787496</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="42" customFormat="1" ht="14.4">
+    <row r="105" spans="1:9" s="42" customFormat="1">
       <c r="A105" s="47" t="s">
         <v>121</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>521059.7</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="42" customFormat="1" ht="14.4">
+    <row r="106" spans="1:9" s="42" customFormat="1">
       <c r="A106" s="47" t="s">
         <v>121</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>-69.748670000000004</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="42" customFormat="1" ht="14.4">
+    <row r="107" spans="1:9" s="42" customFormat="1">
       <c r="A107" s="47" t="s">
         <v>121</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>0.1040893</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="42" customFormat="1" ht="14.4">
+    <row r="108" spans="1:9" s="42" customFormat="1">
       <c r="A108" s="47" t="s">
         <v>121</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>24.808879999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="42" customFormat="1" ht="14.4">
+    <row r="109" spans="1:9" s="42" customFormat="1">
       <c r="A109" s="47" t="s">
         <v>121</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>-2.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="42" customFormat="1" ht="14.4">
+    <row r="110" spans="1:9" s="42" customFormat="1">
       <c r="A110" s="47" t="s">
         <v>121</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="42" customFormat="1" ht="14.4">
+    <row r="111" spans="1:9" s="42" customFormat="1">
       <c r="A111" s="47" t="s">
         <v>121</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>-2.6343390000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="42" customFormat="1" ht="14.4">
+    <row r="112" spans="1:9" s="42" customFormat="1">
       <c r="A112" s="47" t="s">
         <v>121</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>1.7250189999999999E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:12" s="42" customFormat="1" ht="14.4">
+    <row r="113" spans="1:12" s="42" customFormat="1">
       <c r="A113" s="47" t="s">
         <v>121</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>8.3111350000000002E-11</v>
       </c>
     </row>
-    <row r="114" spans="1:12" s="42" customFormat="1" ht="14.4">
+    <row r="114" spans="1:12" s="42" customFormat="1">
       <c r="A114" s="47" t="s">
         <v>121</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>-0.97489669999999995</v>
       </c>
     </row>
-    <row r="115" spans="1:12" s="42" customFormat="1" ht="14.4">
+    <row r="115" spans="1:12" s="42" customFormat="1">
       <c r="A115" s="47" t="s">
         <v>121</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>0.14915400000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:12" s="42" customFormat="1" ht="14.4">
+    <row r="116" spans="1:12" s="42" customFormat="1">
       <c r="A116" s="47" t="s">
         <v>121</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>-1.1994270000000001E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:12" s="42" customFormat="1" ht="14.4">
+    <row r="117" spans="1:12" s="42" customFormat="1">
       <c r="A117" s="47" t="s">
         <v>121</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>3.1447199999999999E-5</v>
       </c>
     </row>
-    <row r="118" spans="1:12" s="42" customFormat="1" ht="14.4">
+    <row r="118" spans="1:12" s="42" customFormat="1">
       <c r="A118" s="47" t="s">
         <v>121</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="119" spans="1:12" s="42" customFormat="1" ht="14.4">
+    <row r="119" spans="1:12" s="42" customFormat="1">
       <c r="A119" s="47" t="s">
         <v>121</v>
       </c>
@@ -5589,7 +5589,7 @@
       <c r="H120" s="16"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:12" ht="14.4">
+    <row r="121" spans="1:12">
       <c r="A121" s="14" t="s">
         <v>122</v>
       </c>
@@ -5616,7 +5616,7 @@
       </c>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:12" ht="14.4">
+    <row r="122" spans="1:12">
       <c r="A122" s="49" t="s">
         <v>122</v>
       </c>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="1:12" ht="14.4">
+    <row r="123" spans="1:12">
       <c r="A123" s="49" t="s">
         <v>122</v>
       </c>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:12" s="42" customFormat="1" ht="14.4">
+    <row r="124" spans="1:12" s="42" customFormat="1">
       <c r="A124" s="71" t="s">
         <v>122</v>
       </c>
@@ -5704,7 +5704,7 @@
       <c r="H125" s="27"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:12" ht="14.4">
+    <row r="126" spans="1:12">
       <c r="A126" s="14" t="s">
         <v>123</v>
       </c>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:12" ht="14.4">
+    <row r="127" spans="1:12">
       <c r="A127" s="49" t="s">
         <v>123</v>
       </c>
@@ -5758,7 +5758,7 @@
       </c>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:12" ht="14.4">
+    <row r="128" spans="1:12">
       <c r="A128" s="49" t="s">
         <v>123</v>
       </c>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="1:12" s="42" customFormat="1" ht="14.4">
+    <row r="129" spans="1:12" s="42" customFormat="1">
       <c r="A129" s="71" t="s">
         <v>123</v>
       </c>
@@ -5819,7 +5819,7 @@
       <c r="H130" s="26"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="1:12" s="81" customFormat="1" ht="14.4">
+    <row r="131" spans="1:12" s="81" customFormat="1">
       <c r="A131" s="140" t="s">
         <v>180</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="132" spans="1:12" s="81" customFormat="1" ht="14.4">
+    <row r="132" spans="1:12" s="81" customFormat="1">
       <c r="A132" s="47" t="s">
         <v>180</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="133" spans="1:12" s="81" customFormat="1" ht="14.4">
+    <row r="133" spans="1:12" s="81" customFormat="1">
       <c r="A133" s="47" t="s">
         <v>180</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>20.09</v>
       </c>
     </row>
-    <row r="134" spans="1:12" s="42" customFormat="1" ht="14.4">
+    <row r="134" spans="1:12" s="42" customFormat="1">
       <c r="A134" s="48" t="s">
         <v>180</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="135" spans="1:12" s="42" customFormat="1" ht="14.4">
+    <row r="135" spans="1:12" s="42" customFormat="1">
       <c r="A135" s="48" t="s">
         <v>180</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="136" spans="1:12" s="42" customFormat="1" ht="14.4">
+    <row r="136" spans="1:12" s="42" customFormat="1">
       <c r="A136" s="48" t="s">
         <v>180</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="137" spans="1:12" s="42" customFormat="1" ht="14.4">
+    <row r="137" spans="1:12" s="42" customFormat="1">
       <c r="A137" s="48" t="s">
         <v>180</v>
       </c>
@@ -6017,7 +6017,7 @@
       <c r="H138" s="16"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="1:12" ht="14.4">
+    <row r="139" spans="1:12">
       <c r="A139" s="30" t="s">
         <v>181</v>
       </c>
@@ -6044,7 +6044,7 @@
       </c>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="1:12" ht="14.4">
+    <row r="140" spans="1:12">
       <c r="A140" s="50" t="s">
         <v>181</v>
       </c>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:12" ht="14.4">
+    <row r="141" spans="1:12">
       <c r="A141" s="50" t="s">
         <v>181</v>
       </c>
@@ -6108,7 +6108,7 @@
       <c r="H142" s="16"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="1:12" ht="14.4">
+    <row r="143" spans="1:12">
       <c r="A143" s="32" t="s">
         <v>124</v>
       </c>
@@ -6135,7 +6135,7 @@
       </c>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="1:12" ht="14.4">
+    <row r="144" spans="1:12">
       <c r="A144" s="50" t="s">
         <v>124</v>
       </c>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="1:9" ht="14.4">
+    <row r="145" spans="1:9">
       <c r="A145" s="50" t="s">
         <v>124</v>
       </c>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="1:9" ht="14.4">
+    <row r="146" spans="1:9">
       <c r="A146" s="50" t="s">
         <v>124</v>
       </c>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="1:9" ht="14.4">
+    <row r="147" spans="1:9">
       <c r="A147" s="50" t="s">
         <v>124</v>
       </c>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="1:9" ht="14.4">
+    <row r="148" spans="1:9">
       <c r="A148" s="50" t="s">
         <v>124</v>
       </c>
@@ -6270,7 +6270,7 @@
       </c>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="1:9" ht="14.4">
+    <row r="149" spans="1:9">
       <c r="A149" s="50" t="s">
         <v>124</v>
       </c>
@@ -6307,7 +6307,7 @@
       <c r="H150" s="16"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="1:9" ht="14.4">
+    <row r="151" spans="1:9">
       <c r="A151" s="32" t="s">
         <v>125</v>
       </c>
@@ -6334,7 +6334,7 @@
       </c>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="1:9" ht="14.4">
+    <row r="152" spans="1:9">
       <c r="A152" s="50" t="s">
         <v>125</v>
       </c>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="1:9" ht="14.4">
+    <row r="153" spans="1:9">
       <c r="A153" s="50" t="s">
         <v>125</v>
       </c>
@@ -6388,7 +6388,7 @@
       </c>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="1:9" ht="14.4">
+    <row r="154" spans="1:9">
       <c r="A154" s="50" t="s">
         <v>125</v>
       </c>
@@ -6415,7 +6415,7 @@
       </c>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="1:9" ht="14.4">
+    <row r="155" spans="1:9">
       <c r="A155" s="50" t="s">
         <v>125</v>
       </c>
@@ -6442,7 +6442,7 @@
       </c>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="1:9" ht="14.4">
+    <row r="156" spans="1:9">
       <c r="A156" s="50" t="s">
         <v>125</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="14.4">
+    <row r="157" spans="1:9">
       <c r="A157" s="50" t="s">
         <v>125</v>
       </c>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="1:9" ht="14.4">
+    <row r="158" spans="1:9">
       <c r="A158" s="50" t="s">
         <v>125</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="14.4">
+    <row r="159" spans="1:9">
       <c r="A159" s="50" t="s">
         <v>125</v>
       </c>
@@ -6554,7 +6554,7 @@
       </c>
       <c r="I159" s="1"/>
     </row>
-    <row r="160" spans="1:9" ht="14.4">
+    <row r="160" spans="1:9">
       <c r="A160" s="50" t="s">
         <v>125</v>
       </c>
@@ -6581,7 +6581,7 @@
       </c>
       <c r="I160" s="1"/>
     </row>
-    <row r="161" spans="1:9" ht="14.4">
+    <row r="161" spans="1:9">
       <c r="A161" s="50" t="s">
         <v>125</v>
       </c>
@@ -6608,7 +6608,7 @@
       </c>
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="1:9" ht="14.4">
+    <row r="162" spans="1:9">
       <c r="A162" s="50" t="s">
         <v>125</v>
       </c>
@@ -6635,7 +6635,7 @@
       </c>
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="1:9" ht="14.4">
+    <row r="163" spans="1:9">
       <c r="A163" s="50" t="s">
         <v>125</v>
       </c>
@@ -6662,7 +6662,7 @@
       </c>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="1:9" ht="14.4">
+    <row r="164" spans="1:9">
       <c r="A164" s="50" t="s">
         <v>125</v>
       </c>
@@ -6689,7 +6689,7 @@
       </c>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="1:9" ht="14.4">
+    <row r="165" spans="1:9">
       <c r="A165" s="50" t="s">
         <v>125</v>
       </c>
@@ -6716,7 +6716,7 @@
       </c>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="1:9" ht="14.4">
+    <row r="166" spans="1:9">
       <c r="A166" s="50" t="s">
         <v>125</v>
       </c>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="1:9" s="42" customFormat="1" ht="14.4">
+    <row r="167" spans="1:9" s="42" customFormat="1">
       <c r="A167" s="50" t="s">
         <v>125</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>2796.2</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="42" customFormat="1" ht="14.4">
+    <row r="168" spans="1:9" s="42" customFormat="1">
       <c r="A168" s="50" t="s">
         <v>125</v>
       </c>
@@ -6805,7 +6805,7 @@
       <c r="H169" s="16"/>
       <c r="I169" s="1"/>
     </row>
-    <row r="170" spans="1:9" ht="14.4">
+    <row r="170" spans="1:9">
       <c r="A170" s="32" t="s">
         <v>126</v>
       </c>
@@ -6832,7 +6832,7 @@
       </c>
       <c r="I170" s="1"/>
     </row>
-    <row r="171" spans="1:9" ht="14.4">
+    <row r="171" spans="1:9">
       <c r="A171" s="50" t="s">
         <v>126</v>
       </c>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="I171" s="1"/>
     </row>
-    <row r="172" spans="1:9" ht="14.4">
+    <row r="172" spans="1:9">
       <c r="A172" s="50" t="s">
         <v>126</v>
       </c>
@@ -6886,7 +6886,7 @@
       </c>
       <c r="I172" s="1"/>
     </row>
-    <row r="173" spans="1:9" ht="14.4">
+    <row r="173" spans="1:9">
       <c r="A173" s="50" t="s">
         <v>126</v>
       </c>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="I173" s="1"/>
     </row>
-    <row r="174" spans="1:9" ht="14.4">
+    <row r="174" spans="1:9">
       <c r="A174" s="50" t="s">
         <v>126</v>
       </c>
@@ -6940,7 +6940,7 @@
       </c>
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="1:9" ht="14.4">
+    <row r="175" spans="1:9">
       <c r="A175" s="50" t="s">
         <v>126</v>
       </c>
@@ -6967,7 +6967,7 @@
       </c>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="1:9" ht="14.4">
+    <row r="176" spans="1:9">
       <c r="A176" s="50" t="s">
         <v>126</v>
       </c>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="1:21" ht="14.4">
+    <row r="177" spans="1:21">
       <c r="A177" s="50" t="s">
         <v>126</v>
       </c>
@@ -7029,7 +7029,7 @@
       <c r="F178" s="42"/>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="1:21" s="113" customFormat="1" ht="14.4">
+    <row r="179" spans="1:21" s="113" customFormat="1">
       <c r="A179" s="68" t="s">
         <v>139</v>
       </c>
@@ -7058,7 +7058,7 @@
       <c r="N179" s="66"/>
       <c r="O179" s="66"/>
     </row>
-    <row r="180" spans="1:21" s="42" customFormat="1" ht="14.4">
+    <row r="180" spans="1:21" s="42" customFormat="1">
       <c r="A180" s="68"/>
       <c r="B180" s="68"/>
       <c r="C180" s="69"/>
@@ -7073,7 +7073,7 @@
       <c r="N180" s="66"/>
       <c r="O180" s="66"/>
     </row>
-    <row r="181" spans="1:21" ht="14.4">
+    <row r="181" spans="1:21">
       <c r="A181" s="17" t="s">
         <v>127</v>
       </c>
@@ -7096,7 +7096,7 @@
       <c r="H181" s="33"/>
       <c r="I181" s="1"/>
     </row>
-    <row r="182" spans="1:21" ht="14.4">
+    <row r="182" spans="1:21">
       <c r="A182" s="16" t="s">
         <v>128</v>
       </c>
@@ -7119,7 +7119,7 @@
       <c r="H182" s="33"/>
       <c r="I182" s="1"/>
     </row>
-    <row r="183" spans="1:21" ht="14.4">
+    <row r="183" spans="1:21">
       <c r="A183" s="16" t="s">
         <v>129</v>
       </c>
@@ -7142,7 +7142,7 @@
       <c r="H183" s="33"/>
       <c r="I183" s="1"/>
     </row>
-    <row r="184" spans="1:21" ht="14.4">
+    <row r="184" spans="1:21">
       <c r="A184" s="16"/>
       <c r="B184" s="114"/>
       <c r="C184" s="15"/>
@@ -7152,7 +7152,7 @@
       <c r="H184" s="33"/>
       <c r="I184" s="1"/>
     </row>
-    <row r="185" spans="1:21" ht="14.4">
+    <row r="185" spans="1:21">
       <c r="A185" s="17" t="s">
         <v>130</v>
       </c>
@@ -7189,7 +7189,7 @@
       <c r="T185" s="66"/>
       <c r="U185" s="66"/>
     </row>
-    <row r="186" spans="1:21" ht="14.4">
+    <row r="186" spans="1:21">
       <c r="A186" s="16" t="s">
         <v>131</v>
       </c>
@@ -7226,7 +7226,7 @@
       <c r="T186" s="66"/>
       <c r="U186" s="66"/>
     </row>
-    <row r="187" spans="1:21" ht="14.4">
+    <row r="187" spans="1:21">
       <c r="A187" s="16" t="s">
         <v>132</v>
       </c>
@@ -7263,7 +7263,7 @@
       <c r="T187" s="66"/>
       <c r="U187" s="66"/>
     </row>
-    <row r="188" spans="1:21" ht="14.4">
+    <row r="188" spans="1:21">
       <c r="A188" s="16" t="s">
         <v>133</v>
       </c>
@@ -7300,7 +7300,7 @@
       <c r="T188" s="66"/>
       <c r="U188" s="66"/>
     </row>
-    <row r="189" spans="1:21" ht="14.4">
+    <row r="189" spans="1:21">
       <c r="A189" s="16" t="s">
         <v>134</v>
       </c>
@@ -7337,7 +7337,7 @@
       <c r="T189" s="66"/>
       <c r="U189" s="66"/>
     </row>
-    <row r="190" spans="1:21" ht="14.4">
+    <row r="190" spans="1:21">
       <c r="A190" s="16" t="s">
         <v>135</v>
       </c>
@@ -7903,19 +7903,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AG83"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="32" width="9.6640625" style="94" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12.6640625" style="94" bestFit="1" customWidth="1"/>
@@ -16319,14 +16324,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
+  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AG83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="16384" width="8.6640625" style="94"/>
   </cols>
@@ -24732,7 +24737,7 @@
       <selection activeCell="AJ87" sqref="AJ87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="35" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -34218,7 +34223,7 @@
       <selection activeCell="AJ87" sqref="AJ87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="25" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.6640625" customWidth="1"/>

--- a/deployment/Omaha_Cal_Info_CP03ISSM_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CP03ISSM_00003.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14860" yWindow="1500" windowWidth="18740" windowHeight="13940" tabRatio="766" activeTab="1"/>
+    <workbookView xWindow="14865" yWindow="1500" windowWidth="18735" windowHeight="13935" tabRatio="766"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -28,7 +33,7 @@
     <definedName name="acs256_2015_08_04_calData" localSheetId="5">'257_CC_tcarray'!$A$1:$AK$168</definedName>
     <definedName name="acs257_2015_08_20_calData" localSheetId="4">'257_CC_taarray'!$A$1:$AL$87</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2213,11 +2218,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Moorings"/>
       <sheetName val="Read Me"/>
-      <sheetName val="Moorings"/>
       <sheetName val="Asset_Cal_Info"/>
     </sheetNames>
     <sheetDataSet>
@@ -2530,30 +2535,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="55" customWidth="1"/>
     <col min="2" max="2" width="16" style="55" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="55" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="56" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="56" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="55" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="55" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" style="55" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="55" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="55" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="55" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="56" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="56" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="55" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="55" customWidth="1"/>
     <col min="13" max="13" width="12" style="55" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" style="55" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.6640625" style="55"/>
+    <col min="14" max="14" width="12.7109375" style="55" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="52" customFormat="1" ht="28">
+    <row r="1" spans="1:14" s="52" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>194</v>
       </c>
@@ -2591,7 +2596,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>195</v>
       </c>
@@ -2610,7 +2615,9 @@
       <c r="F2" s="61">
         <v>0.73958333333333337</v>
       </c>
-      <c r="G2" s="142"/>
+      <c r="G2" s="142">
+        <v>42517</v>
+      </c>
       <c r="H2" s="9" t="s">
         <v>177</v>
       </c>
@@ -2633,18 +2640,18 @@
         <v>-70.88836666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:14" customFormat="1"/>
-    <row r="5" spans="1:14" customFormat="1"/>
-    <row r="6" spans="1:14" customFormat="1"/>
-    <row r="7" spans="1:14" customFormat="1"/>
-    <row r="8" spans="1:14" customFormat="1"/>
-    <row r="9" spans="1:14" customFormat="1"/>
-    <row r="10" spans="1:14" customFormat="1"/>
-    <row r="11" spans="1:14" customFormat="1"/>
-    <row r="12" spans="1:14" customFormat="1"/>
-    <row r="13" spans="1:14" customFormat="1"/>
-    <row r="14" spans="1:14" customFormat="1"/>
-    <row r="15" spans="1:14" customFormat="1"/>
+    <row r="4" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2660,31 +2667,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26:Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="113" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="113" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="43" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="62.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="43" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="62.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="1"/>
-    <col min="11" max="11" width="4.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="1"/>
+    <col min="11" max="11" width="4.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.6640625" style="1"/>
+    <col min="15" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="28">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2717,7 +2724,7 @@
       <c r="L1" s="34"/>
       <c r="M1" s="34"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C2" s="16"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -2725,7 +2732,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>144</v>
       </c>
@@ -2748,11 +2755,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="16"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:13" s="66" customFormat="1">
+    <row r="5" spans="1:13" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
         <v>143</v>
       </c>
@@ -2775,7 +2782,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="66" customFormat="1">
+    <row r="6" spans="1:13" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
         <v>145</v>
       </c>
@@ -2798,13 +2805,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="42" customFormat="1">
+    <row r="7" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="113"/>
       <c r="C7" s="40"/>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>112</v>
       </c>
@@ -2831,7 +2838,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>112</v>
       </c>
@@ -2858,7 +2865,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>112</v>
       </c>
@@ -2885,7 +2892,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>112</v>
       </c>
@@ -2912,7 +2919,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>112</v>
       </c>
@@ -2939,7 +2946,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>112</v>
       </c>
@@ -2966,7 +2973,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>112</v>
       </c>
@@ -2995,7 +3002,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>112</v>
       </c>
@@ -3024,7 +3031,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>112</v>
       </c>
@@ -3053,13 +3060,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C17" s="15"/>
       <c r="D17" s="43"/>
       <c r="H17" s="43"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>113</v>
       </c>
@@ -3082,7 +3089,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="15"/>
@@ -3090,7 +3097,7 @@
       <c r="F19" s="11"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>114</v>
       </c>
@@ -3117,7 +3124,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
         <v>114</v>
       </c>
@@ -3144,7 +3151,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" s="42" customFormat="1">
+    <row r="22" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="15"/>
@@ -3153,7 +3160,7 @@
       <c r="F22" s="40"/>
       <c r="H22" s="59"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>136</v>
       </c>
@@ -3180,7 +3187,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>136</v>
       </c>
@@ -3207,175 +3214,176 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C25" s="15"/>
       <c r="D25" s="43"/>
       <c r="H25" s="43"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="I26" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B26" t="s">
+      <c r="J26" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="K26" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="43">
+      <c r="L26" s="43">
         <v>3</v>
       </c>
-      <c r="F26" s="105" t="s">
+      <c r="M26" s="43"/>
+      <c r="N26" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="G26" s="112" t="s">
+      <c r="O26" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="110"/>
-      <c r="I26" s="113" t="s">
+      <c r="P26" s="110"/>
+      <c r="Q26" s="113" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="46" t="s">
+    <row r="27" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="I27" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B27" t="s">
+      <c r="J27" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="K27" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="2">
+      <c r="L27" s="2">
         <v>3</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="128" t="s">
+      <c r="M27" s="2"/>
+      <c r="N27" s="128" t="s">
         <v>192</v>
       </c>
-      <c r="G27" s="112" t="s">
+      <c r="O27" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="110"/>
-      <c r="I27" s="107"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="46" t="s">
+      <c r="P27" s="110"/>
+      <c r="Q27" s="107"/>
+    </row>
+    <row r="28" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="I28" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B28" t="s">
+      <c r="J28" t="s">
         <v>195</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="K28" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="2">
+      <c r="L28" s="2">
         <v>3</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="128" t="s">
+      <c r="M28" s="2"/>
+      <c r="N28" s="128" t="s">
         <v>192</v>
       </c>
-      <c r="G28" s="112" t="s">
+      <c r="O28" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="110"/>
-      <c r="I28" s="107"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="46" t="s">
+      <c r="P28" s="110"/>
+      <c r="Q28" s="107"/>
+    </row>
+    <row r="29" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="I29" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B29" t="s">
+      <c r="J29" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="K29" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="2">
+      <c r="L29" s="2">
         <v>3</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="128" t="s">
+      <c r="M29" s="2"/>
+      <c r="N29" s="128" t="s">
         <v>192</v>
       </c>
-      <c r="G29" s="112" t="s">
+      <c r="O29" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="110"/>
-      <c r="I29" s="107"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="46" t="s">
+      <c r="P29" s="110"/>
+      <c r="Q29" s="107"/>
+    </row>
+    <row r="30" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="I30" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B30" t="s">
+      <c r="J30" t="s">
         <v>195</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="K30" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="D30" s="2">
+      <c r="L30" s="2">
         <v>3</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="128" t="s">
+      <c r="M30" s="2"/>
+      <c r="N30" s="128" t="s">
         <v>192</v>
       </c>
-      <c r="G30" s="112" t="s">
+      <c r="O30" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="111"/>
-      <c r="I30" s="107"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="46" t="s">
+      <c r="P30" s="111"/>
+      <c r="Q30" s="107"/>
+    </row>
+    <row r="31" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="I31" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B31" t="s">
+      <c r="J31" t="s">
         <v>195</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="K31" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="2">
+      <c r="L31" s="2">
         <v>3</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="128" t="s">
+      <c r="M31" s="2"/>
+      <c r="N31" s="128" t="s">
         <v>192</v>
       </c>
-      <c r="G31" s="112" t="s">
+      <c r="O31" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="111"/>
-      <c r="I31" s="107"/>
-    </row>
-    <row r="32" spans="1:9" s="42" customFormat="1">
-      <c r="A32" s="46" t="s">
+      <c r="P31" s="111"/>
+      <c r="Q31" s="107"/>
+    </row>
+    <row r="32" spans="1:17" s="42" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="I32" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B32" t="s">
+      <c r="J32" t="s">
         <v>195</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="K32" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="2">
+      <c r="L32" s="2">
         <v>3</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="128" t="s">
+      <c r="M32" s="2"/>
+      <c r="N32" s="128" t="s">
         <v>192</v>
       </c>
-      <c r="G32" s="108" t="s">
+      <c r="O32" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="H32" s="109"/>
-      <c r="I32" s="107"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="P32" s="109"/>
+      <c r="Q32" s="107"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="114"/>
       <c r="C33" s="15"/>
@@ -3385,7 +3393,7 @@
       <c r="H33" s="39"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>116</v>
       </c>
@@ -3412,7 +3420,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="46" t="s">
         <v>116</v>
       </c>
@@ -3439,7 +3447,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="46" t="s">
         <v>116</v>
       </c>
@@ -3466,7 +3474,7 @@
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="46" t="s">
         <v>116</v>
       </c>
@@ -3493,7 +3501,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="46" t="s">
         <v>116</v>
       </c>
@@ -3520,7 +3528,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="46" t="s">
         <v>116</v>
       </c>
@@ -3547,7 +3555,7 @@
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" s="42" customFormat="1">
+    <row r="40" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="46" t="s">
         <v>116</v>
       </c>
@@ -3576,7 +3584,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="16"/>
       <c r="B41" s="114"/>
       <c r="C41" s="15"/>
@@ -3586,7 +3594,7 @@
       <c r="H41" s="16"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" s="42" customFormat="1">
+    <row r="42" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>117</v>
       </c>
@@ -3612,7 +3620,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="42" customFormat="1">
+    <row r="43" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
         <v>117</v>
       </c>
@@ -3638,7 +3646,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="42" customFormat="1">
+    <row r="44" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
         <v>117</v>
       </c>
@@ -3664,7 +3672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="42" customFormat="1">
+    <row r="45" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
         <v>117</v>
       </c>
@@ -3690,7 +3698,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="42" customFormat="1">
+    <row r="46" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
         <v>117</v>
       </c>
@@ -3716,7 +3724,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="42" customFormat="1">
+    <row r="47" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
         <v>117</v>
       </c>
@@ -3742,7 +3750,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="81" customFormat="1">
+    <row r="48" spans="1:9" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
         <v>117</v>
       </c>
@@ -3768,7 +3776,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="84" customFormat="1">
+    <row r="49" spans="1:9" s="84" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>117</v>
       </c>
@@ -3794,7 +3802,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="81" customFormat="1">
+    <row r="50" spans="1:9" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="80"/>
       <c r="B50" s="80"/>
       <c r="C50" s="78"/>
@@ -3804,7 +3812,7 @@
       <c r="G50" s="80"/>
       <c r="H50" s="80"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>118</v>
       </c>
@@ -3831,7 +3839,7 @@
       </c>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
         <v>118</v>
       </c>
@@ -3858,7 +3866,7 @@
       </c>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
         <v>118</v>
       </c>
@@ -3885,7 +3893,7 @@
       </c>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
         <v>118</v>
       </c>
@@ -3912,7 +3920,7 @@
       </c>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
         <v>118</v>
       </c>
@@ -3939,7 +3947,7 @@
       </c>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
         <v>118</v>
       </c>
@@ -3966,7 +3974,7 @@
       </c>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
         <v>118</v>
       </c>
@@ -3993,7 +4001,7 @@
       </c>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
         <v>118</v>
       </c>
@@ -4020,7 +4028,7 @@
       </c>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="16"/>
       <c r="B59" s="114"/>
       <c r="C59" s="15"/>
@@ -4030,7 +4038,7 @@
       <c r="H59" s="40"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
         <v>119</v>
       </c>
@@ -4057,7 +4065,7 @@
       </c>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
         <v>119</v>
       </c>
@@ -4084,7 +4092,7 @@
       </c>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>119</v>
       </c>
@@ -4111,7 +4119,7 @@
       </c>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>119</v>
       </c>
@@ -4138,7 +4146,7 @@
       </c>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
         <v>119</v>
       </c>
@@ -4165,7 +4173,7 @@
       </c>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>119</v>
       </c>
@@ -4192,7 +4200,7 @@
       </c>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
         <v>119</v>
       </c>
@@ -4221,7 +4229,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
         <v>119</v>
       </c>
@@ -4250,7 +4258,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
         <v>119</v>
       </c>
@@ -4279,7 +4287,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>119</v>
       </c>
@@ -4308,7 +4316,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="16"/>
       <c r="B70" s="114"/>
       <c r="C70" s="15"/>
@@ -4318,7 +4326,7 @@
       <c r="H70" s="23"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>120</v>
       </c>
@@ -4345,7 +4353,7 @@
       </c>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" s="38" customFormat="1">
+    <row r="72" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="47" t="s">
         <v>120</v>
       </c>
@@ -4371,7 +4379,7 @@
         <v>-70.88836666666667</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="38" customFormat="1">
+    <row r="73" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="47" t="s">
         <v>120</v>
       </c>
@@ -4397,7 +4405,7 @@
         <v>1.2454059999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="38" customFormat="1">
+    <row r="74" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="47" t="s">
         <v>120</v>
       </c>
@@ -4423,7 +4431,7 @@
         <v>2.7786899999999998E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="38" customFormat="1">
+    <row r="75" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="47" t="s">
         <v>120</v>
       </c>
@@ -4449,7 +4457,7 @@
         <v>-1.4908049999999999E-6</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="38" customFormat="1">
+    <row r="76" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="47" t="s">
         <v>120</v>
       </c>
@@ -4475,7 +4483,7 @@
         <v>1.957949E-7</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="38" customFormat="1">
+    <row r="77" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="47" t="s">
         <v>120</v>
       </c>
@@ -4501,7 +4509,7 @@
         <v>80.793300000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="38" customFormat="1">
+    <row r="78" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="47" t="s">
         <v>120</v>
       </c>
@@ -4527,7 +4535,7 @@
         <v>-45.033259999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="38" customFormat="1">
+    <row r="79" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="47" t="s">
         <v>120</v>
       </c>
@@ -4553,7 +4561,7 @@
         <v>-1.5847249999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="38" customFormat="1">
+    <row r="80" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="47" t="s">
         <v>120</v>
       </c>
@@ -4579,7 +4587,7 @@
         <v>501948.3</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="38" customFormat="1">
+    <row r="81" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="47" t="s">
         <v>120</v>
       </c>
@@ -4605,7 +4613,7 @@
         <v>-348.35250000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="38" customFormat="1">
+    <row r="82" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="47" t="s">
         <v>120</v>
       </c>
@@ -4631,7 +4639,7 @@
         <v>-2.436299</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="38" customFormat="1">
+    <row r="83" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="47" t="s">
         <v>120</v>
       </c>
@@ -4657,7 +4665,7 @@
         <v>24.98875</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="38" customFormat="1">
+    <row r="84" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="47" t="s">
         <v>120</v>
       </c>
@@ -4683,7 +4691,7 @@
         <v>3.5E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="38" customFormat="1">
+    <row r="85" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="47" t="s">
         <v>120</v>
       </c>
@@ -4709,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="38" customFormat="1">
+    <row r="86" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="47" t="s">
         <v>120</v>
       </c>
@@ -4735,7 +4743,7 @@
         <v>-6.0357479999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="38" customFormat="1">
+    <row r="87" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="47" t="s">
         <v>120</v>
       </c>
@@ -4761,7 +4769,7 @@
         <v>6.2842970000000003E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="38" customFormat="1">
+    <row r="88" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="47" t="s">
         <v>120</v>
       </c>
@@ -4787,7 +4795,7 @@
         <v>1.1095569999999999E-11</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="38" customFormat="1">
+    <row r="89" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="47" t="s">
         <v>120</v>
       </c>
@@ -4813,7 +4821,7 @@
         <v>-0.97491689999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="38" customFormat="1">
+    <row r="90" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="47" t="s">
         <v>120</v>
       </c>
@@ -4839,7 +4847,7 @@
         <v>0.15107590000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="38" customFormat="1">
+    <row r="91" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="47" t="s">
         <v>120</v>
       </c>
@@ -4865,7 +4873,7 @@
         <v>-1.3855289999999999E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="38" customFormat="1">
+    <row r="92" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="47" t="s">
         <v>120</v>
       </c>
@@ -4891,7 +4899,7 @@
         <v>3.3348359999999998E-5</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="38" customFormat="1">
+    <row r="93" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="47" t="s">
         <v>120</v>
       </c>
@@ -4917,7 +4925,7 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="38" customFormat="1">
+    <row r="94" spans="1:9" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="47" t="s">
         <v>120</v>
       </c>
@@ -4943,7 +4951,7 @@
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="42" customFormat="1">
+    <row r="95" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="41"/>
       <c r="B95" s="41"/>
       <c r="C95" s="15"/>
@@ -4953,7 +4961,7 @@
       <c r="G95" s="39"/>
       <c r="H95" s="37"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
         <v>121</v>
       </c>
@@ -4980,7 +4988,7 @@
       </c>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="47" t="s">
         <v>121</v>
       </c>
@@ -5007,7 +5015,7 @@
       </c>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" s="42" customFormat="1">
+    <row r="98" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="47" t="s">
         <v>121</v>
       </c>
@@ -5033,7 +5041,7 @@
         <v>1.290022E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="42" customFormat="1">
+    <row r="99" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="47" t="s">
         <v>121</v>
       </c>
@@ -5059,7 +5067,7 @@
         <v>2.6727119999999998E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="42" customFormat="1">
+    <row r="100" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="47" t="s">
         <v>121</v>
       </c>
@@ -5085,7 +5093,7 @@
         <v>-6.1331679999999997E-7</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="42" customFormat="1">
+    <row r="101" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="47" t="s">
         <v>121</v>
       </c>
@@ -5111,7 +5119,7 @@
         <v>1.5880860000000001E-7</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="42" customFormat="1">
+    <row r="102" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="47" t="s">
         <v>121</v>
       </c>
@@ -5137,7 +5145,7 @@
         <v>164.5857</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="42" customFormat="1">
+    <row r="103" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="47" t="s">
         <v>121</v>
       </c>
@@ -5163,7 +5171,7 @@
         <v>-64.116370000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="42" customFormat="1">
+    <row r="104" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="47" t="s">
         <v>121</v>
       </c>
@@ -5189,7 +5197,7 @@
         <v>-2.787496</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="42" customFormat="1">
+    <row r="105" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="47" t="s">
         <v>121</v>
       </c>
@@ -5215,7 +5223,7 @@
         <v>521059.7</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="42" customFormat="1">
+    <row r="106" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="47" t="s">
         <v>121</v>
       </c>
@@ -5241,7 +5249,7 @@
         <v>-69.748670000000004</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="42" customFormat="1">
+    <row r="107" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="47" t="s">
         <v>121</v>
       </c>
@@ -5267,7 +5275,7 @@
         <v>0.1040893</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="42" customFormat="1">
+    <row r="108" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="47" t="s">
         <v>121</v>
       </c>
@@ -5293,7 +5301,7 @@
         <v>24.808879999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="42" customFormat="1">
+    <row r="109" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="47" t="s">
         <v>121</v>
       </c>
@@ -5319,7 +5327,7 @@
         <v>-2.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="42" customFormat="1">
+    <row r="110" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="47" t="s">
         <v>121</v>
       </c>
@@ -5345,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="42" customFormat="1">
+    <row r="111" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="47" t="s">
         <v>121</v>
       </c>
@@ -5371,7 +5379,7 @@
         <v>-2.6343390000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="42" customFormat="1">
+    <row r="112" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="47" t="s">
         <v>121</v>
       </c>
@@ -5397,7 +5405,7 @@
         <v>1.7250189999999999E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:12" s="42" customFormat="1">
+    <row r="113" spans="1:12" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="47" t="s">
         <v>121</v>
       </c>
@@ -5423,7 +5431,7 @@
         <v>8.3111350000000002E-11</v>
       </c>
     </row>
-    <row r="114" spans="1:12" s="42" customFormat="1">
+    <row r="114" spans="1:12" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="47" t="s">
         <v>121</v>
       </c>
@@ -5449,7 +5457,7 @@
         <v>-0.97489669999999995</v>
       </c>
     </row>
-    <row r="115" spans="1:12" s="42" customFormat="1">
+    <row r="115" spans="1:12" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="47" t="s">
         <v>121</v>
       </c>
@@ -5475,7 +5483,7 @@
         <v>0.14915400000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:12" s="42" customFormat="1">
+    <row r="116" spans="1:12" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="47" t="s">
         <v>121</v>
       </c>
@@ -5501,7 +5509,7 @@
         <v>-1.1994270000000001E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:12" s="42" customFormat="1">
+    <row r="117" spans="1:12" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="47" t="s">
         <v>121</v>
       </c>
@@ -5527,7 +5535,7 @@
         <v>3.1447199999999999E-5</v>
       </c>
     </row>
-    <row r="118" spans="1:12" s="42" customFormat="1">
+    <row r="118" spans="1:12" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="47" t="s">
         <v>121</v>
       </c>
@@ -5553,7 +5561,7 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="119" spans="1:12" s="42" customFormat="1">
+    <row r="119" spans="1:12" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="47" t="s">
         <v>121</v>
       </c>
@@ -5579,7 +5587,7 @@
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="16"/>
       <c r="B120" s="114"/>
       <c r="C120" s="15"/>
@@ -5589,7 +5597,7 @@
       <c r="H120" s="16"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
         <v>122</v>
       </c>
@@ -5616,7 +5624,7 @@
       </c>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="49" t="s">
         <v>122</v>
       </c>
@@ -5643,7 +5651,7 @@
       </c>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="49" t="s">
         <v>122</v>
       </c>
@@ -5670,7 +5678,7 @@
       </c>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:12" s="42" customFormat="1">
+    <row r="124" spans="1:12" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="71" t="s">
         <v>122</v>
       </c>
@@ -5694,7 +5702,7 @@
       </c>
       <c r="L124" s="67"/>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="16"/>
       <c r="B125" s="114"/>
       <c r="C125" s="15"/>
@@ -5704,7 +5712,7 @@
       <c r="H125" s="27"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
         <v>123</v>
       </c>
@@ -5731,7 +5739,7 @@
       </c>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="49" t="s">
         <v>123</v>
       </c>
@@ -5758,7 +5766,7 @@
       </c>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="49" t="s">
         <v>123</v>
       </c>
@@ -5785,7 +5793,7 @@
       </c>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="1:12" s="42" customFormat="1">
+    <row r="129" spans="1:12" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="71" t="s">
         <v>123</v>
       </c>
@@ -5809,7 +5817,7 @@
       </c>
       <c r="L129" s="67"/>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="16"/>
       <c r="B130" s="114"/>
       <c r="C130" s="15"/>
@@ -5819,7 +5827,7 @@
       <c r="H130" s="26"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="1:12" s="81" customFormat="1">
+    <row r="131" spans="1:12" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="140" t="s">
         <v>180</v>
       </c>
@@ -5848,7 +5856,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="132" spans="1:12" s="81" customFormat="1">
+    <row r="132" spans="1:12" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="47" t="s">
         <v>180</v>
       </c>
@@ -5877,7 +5885,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="133" spans="1:12" s="81" customFormat="1">
+    <row r="133" spans="1:12" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="47" t="s">
         <v>180</v>
       </c>
@@ -5903,7 +5911,7 @@
         <v>20.09</v>
       </c>
     </row>
-    <row r="134" spans="1:12" s="42" customFormat="1">
+    <row r="134" spans="1:12" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="48" t="s">
         <v>180</v>
       </c>
@@ -5929,7 +5937,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="135" spans="1:12" s="42" customFormat="1">
+    <row r="135" spans="1:12" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="48" t="s">
         <v>180</v>
       </c>
@@ -5955,7 +5963,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="136" spans="1:12" s="42" customFormat="1">
+    <row r="136" spans="1:12" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="48" t="s">
         <v>180</v>
       </c>
@@ -5981,7 +5989,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="137" spans="1:12" s="42" customFormat="1">
+    <row r="137" spans="1:12" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="48" t="s">
         <v>180</v>
       </c>
@@ -6007,7 +6015,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="16"/>
       <c r="B138" s="114"/>
       <c r="C138" s="15"/>
@@ -6017,7 +6025,7 @@
       <c r="H138" s="16"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="30" t="s">
         <v>181</v>
       </c>
@@ -6044,7 +6052,7 @@
       </c>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="50" t="s">
         <v>181</v>
       </c>
@@ -6071,7 +6079,7 @@
       </c>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="50" t="s">
         <v>181</v>
       </c>
@@ -6098,7 +6106,7 @@
       </c>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="16"/>
       <c r="B142" s="114"/>
       <c r="C142" s="15"/>
@@ -6108,7 +6116,7 @@
       <c r="H142" s="16"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="32" t="s">
         <v>124</v>
       </c>
@@ -6135,7 +6143,7 @@
       </c>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="50" t="s">
         <v>124</v>
       </c>
@@ -6162,7 +6170,7 @@
       </c>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="50" t="s">
         <v>124</v>
       </c>
@@ -6189,7 +6197,7 @@
       </c>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="50" t="s">
         <v>124</v>
       </c>
@@ -6216,7 +6224,7 @@
       </c>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="50" t="s">
         <v>124</v>
       </c>
@@ -6243,7 +6251,7 @@
       </c>
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="50" t="s">
         <v>124</v>
       </c>
@@ -6270,7 +6278,7 @@
       </c>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="50" t="s">
         <v>124</v>
       </c>
@@ -6297,7 +6305,7 @@
       </c>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="16"/>
       <c r="B150" s="114"/>
       <c r="C150" s="15"/>
@@ -6307,7 +6315,7 @@
       <c r="H150" s="16"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="32" t="s">
         <v>125</v>
       </c>
@@ -6334,7 +6342,7 @@
       </c>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="50" t="s">
         <v>125</v>
       </c>
@@ -6361,7 +6369,7 @@
       </c>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="50" t="s">
         <v>125</v>
       </c>
@@ -6388,7 +6396,7 @@
       </c>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="50" t="s">
         <v>125</v>
       </c>
@@ -6415,7 +6423,7 @@
       </c>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="50" t="s">
         <v>125</v>
       </c>
@@ -6442,7 +6450,7 @@
       </c>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="50" t="s">
         <v>125</v>
       </c>
@@ -6471,7 +6479,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="50" t="s">
         <v>125</v>
       </c>
@@ -6498,7 +6506,7 @@
       </c>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="50" t="s">
         <v>125</v>
       </c>
@@ -6527,7 +6535,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="50" t="s">
         <v>125</v>
       </c>
@@ -6554,7 +6562,7 @@
       </c>
       <c r="I159" s="1"/>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="50" t="s">
         <v>125</v>
       </c>
@@ -6581,7 +6589,7 @@
       </c>
       <c r="I160" s="1"/>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="50" t="s">
         <v>125</v>
       </c>
@@ -6608,7 +6616,7 @@
       </c>
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="50" t="s">
         <v>125</v>
       </c>
@@ -6635,7 +6643,7 @@
       </c>
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="50" t="s">
         <v>125</v>
       </c>
@@ -6662,7 +6670,7 @@
       </c>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="50" t="s">
         <v>125</v>
       </c>
@@ -6689,7 +6697,7 @@
       </c>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="50" t="s">
         <v>125</v>
       </c>
@@ -6716,7 +6724,7 @@
       </c>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="50" t="s">
         <v>125</v>
       </c>
@@ -6743,7 +6751,7 @@
       </c>
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="1:9" s="42" customFormat="1">
+    <row r="167" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="50" t="s">
         <v>125</v>
       </c>
@@ -6769,7 +6777,7 @@
         <v>2796.2</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="42" customFormat="1">
+    <row r="168" spans="1:9" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="50" t="s">
         <v>125</v>
       </c>
@@ -6795,7 +6803,7 @@
         <v>41943</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="16"/>
       <c r="B169" s="114"/>
       <c r="C169" s="15"/>
@@ -6805,7 +6813,7 @@
       <c r="H169" s="16"/>
       <c r="I169" s="1"/>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="32" t="s">
         <v>126</v>
       </c>
@@ -6832,7 +6840,7 @@
       </c>
       <c r="I170" s="1"/>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="50" t="s">
         <v>126</v>
       </c>
@@ -6859,7 +6867,7 @@
       </c>
       <c r="I171" s="1"/>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="50" t="s">
         <v>126</v>
       </c>
@@ -6886,7 +6894,7 @@
       </c>
       <c r="I172" s="1"/>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="50" t="s">
         <v>126</v>
       </c>
@@ -6913,7 +6921,7 @@
       </c>
       <c r="I173" s="1"/>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="50" t="s">
         <v>126</v>
       </c>
@@ -6940,7 +6948,7 @@
       </c>
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="50" t="s">
         <v>126</v>
       </c>
@@ -6967,7 +6975,7 @@
       </c>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="50" t="s">
         <v>126</v>
       </c>
@@ -6994,7 +7002,7 @@
       </c>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="1:21">
+    <row r="177" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="50" t="s">
         <v>126</v>
       </c>
@@ -7021,7 +7029,7 @@
       </c>
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="1:21">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" s="20"/>
       <c r="B178" s="20"/>
       <c r="C178" s="15"/>
@@ -7029,7 +7037,7 @@
       <c r="F178" s="42"/>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="1:21" s="113" customFormat="1">
+    <row r="179" spans="1:21" s="113" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="68" t="s">
         <v>139</v>
       </c>
@@ -7058,7 +7066,7 @@
       <c r="N179" s="66"/>
       <c r="O179" s="66"/>
     </row>
-    <row r="180" spans="1:21" s="42" customFormat="1">
+    <row r="180" spans="1:21" s="42" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="68"/>
       <c r="B180" s="68"/>
       <c r="C180" s="69"/>
@@ -7073,7 +7081,7 @@
       <c r="N180" s="66"/>
       <c r="O180" s="66"/>
     </row>
-    <row r="181" spans="1:21">
+    <row r="181" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="17" t="s">
         <v>127</v>
       </c>
@@ -7096,7 +7104,7 @@
       <c r="H181" s="33"/>
       <c r="I181" s="1"/>
     </row>
-    <row r="182" spans="1:21">
+    <row r="182" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="16" t="s">
         <v>128</v>
       </c>
@@ -7119,7 +7127,7 @@
       <c r="H182" s="33"/>
       <c r="I182" s="1"/>
     </row>
-    <row r="183" spans="1:21">
+    <row r="183" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="16" t="s">
         <v>129</v>
       </c>
@@ -7142,7 +7150,7 @@
       <c r="H183" s="33"/>
       <c r="I183" s="1"/>
     </row>
-    <row r="184" spans="1:21">
+    <row r="184" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="16"/>
       <c r="B184" s="114"/>
       <c r="C184" s="15"/>
@@ -7152,7 +7160,7 @@
       <c r="H184" s="33"/>
       <c r="I184" s="1"/>
     </row>
-    <row r="185" spans="1:21">
+    <row r="185" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="17" t="s">
         <v>130</v>
       </c>
@@ -7189,7 +7197,7 @@
       <c r="T185" s="66"/>
       <c r="U185" s="66"/>
     </row>
-    <row r="186" spans="1:21">
+    <row r="186" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="16" t="s">
         <v>131</v>
       </c>
@@ -7226,7 +7234,7 @@
       <c r="T186" s="66"/>
       <c r="U186" s="66"/>
     </row>
-    <row r="187" spans="1:21">
+    <row r="187" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="16" t="s">
         <v>132</v>
       </c>
@@ -7263,7 +7271,7 @@
       <c r="T187" s="66"/>
       <c r="U187" s="66"/>
     </row>
-    <row r="188" spans="1:21">
+    <row r="188" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="16" t="s">
         <v>133</v>
       </c>
@@ -7300,7 +7308,7 @@
       <c r="T188" s="66"/>
       <c r="U188" s="66"/>
     </row>
-    <row r="189" spans="1:21">
+    <row r="189" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="16" t="s">
         <v>134</v>
       </c>
@@ -7337,7 +7345,7 @@
       <c r="T189" s="66"/>
       <c r="U189" s="66"/>
     </row>
-    <row r="190" spans="1:21">
+    <row r="190" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="16" t="s">
         <v>135</v>
       </c>
@@ -7374,529 +7382,529 @@
       <c r="T190" s="66"/>
       <c r="U190" s="66"/>
     </row>
-    <row r="191" spans="1:21">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I191" s="1"/>
     </row>
-    <row r="192" spans="1:21">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I192" s="1"/>
     </row>
-    <row r="193" spans="9:9">
+    <row r="193" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I193" s="1"/>
     </row>
-    <row r="194" spans="9:9">
+    <row r="194" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I194" s="1"/>
     </row>
-    <row r="195" spans="9:9">
+    <row r="195" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I195" s="1"/>
     </row>
-    <row r="196" spans="9:9">
+    <row r="196" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I196" s="1"/>
     </row>
-    <row r="197" spans="9:9">
+    <row r="197" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I197" s="1"/>
     </row>
-    <row r="198" spans="9:9">
+    <row r="198" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I198" s="1"/>
     </row>
-    <row r="199" spans="9:9">
+    <row r="199" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I199" s="1"/>
     </row>
-    <row r="200" spans="9:9">
+    <row r="200" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I200" s="1"/>
     </row>
-    <row r="201" spans="9:9">
+    <row r="201" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I201" s="1"/>
     </row>
-    <row r="202" spans="9:9">
+    <row r="202" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I202" s="1"/>
     </row>
-    <row r="203" spans="9:9">
+    <row r="203" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I203" s="1"/>
     </row>
-    <row r="204" spans="9:9">
+    <row r="204" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I204" s="1"/>
     </row>
-    <row r="205" spans="9:9">
+    <row r="205" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I205" s="1"/>
     </row>
-    <row r="206" spans="9:9">
+    <row r="206" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I206" s="1"/>
     </row>
-    <row r="207" spans="9:9">
+    <row r="207" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I207" s="1"/>
     </row>
-    <row r="208" spans="9:9">
+    <row r="208" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I208" s="1"/>
     </row>
-    <row r="209" spans="9:9">
+    <row r="209" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I209" s="1"/>
     </row>
-    <row r="210" spans="9:9">
+    <row r="210" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I210" s="1"/>
     </row>
-    <row r="211" spans="9:9">
+    <row r="211" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I211" s="1"/>
     </row>
-    <row r="212" spans="9:9">
+    <row r="212" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I212" s="1"/>
     </row>
-    <row r="213" spans="9:9">
+    <row r="213" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I213" s="1"/>
     </row>
-    <row r="214" spans="9:9">
+    <row r="214" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I214" s="1"/>
     </row>
-    <row r="215" spans="9:9">
+    <row r="215" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I215" s="1"/>
     </row>
-    <row r="216" spans="9:9">
+    <row r="216" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I216" s="1"/>
     </row>
-    <row r="217" spans="9:9">
+    <row r="217" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I217" s="1"/>
     </row>
-    <row r="218" spans="9:9">
+    <row r="218" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I218" s="1"/>
     </row>
-    <row r="219" spans="9:9">
+    <row r="219" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I219" s="1"/>
     </row>
-    <row r="220" spans="9:9">
+    <row r="220" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I220" s="1"/>
     </row>
-    <row r="221" spans="9:9">
+    <row r="221" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I221" s="1"/>
     </row>
-    <row r="222" spans="9:9">
+    <row r="222" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I222" s="1"/>
     </row>
-    <row r="223" spans="9:9">
+    <row r="223" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I223" s="1"/>
     </row>
-    <row r="224" spans="9:9">
+    <row r="224" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I224" s="1"/>
     </row>
-    <row r="225" spans="9:9">
+    <row r="225" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I225" s="1"/>
     </row>
-    <row r="226" spans="9:9">
+    <row r="226" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I226" s="1"/>
     </row>
-    <row r="227" spans="9:9">
+    <row r="227" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I227" s="1"/>
     </row>
-    <row r="228" spans="9:9">
+    <row r="228" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I228" s="1"/>
     </row>
-    <row r="229" spans="9:9">
+    <row r="229" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I229" s="1"/>
     </row>
-    <row r="230" spans="9:9">
+    <row r="230" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I230" s="1"/>
     </row>
-    <row r="231" spans="9:9">
+    <row r="231" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I231" s="1"/>
     </row>
-    <row r="232" spans="9:9">
+    <row r="232" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I232" s="1"/>
     </row>
-    <row r="233" spans="9:9">
+    <row r="233" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I233" s="1"/>
     </row>
-    <row r="234" spans="9:9">
+    <row r="234" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I234" s="1"/>
     </row>
-    <row r="235" spans="9:9">
+    <row r="235" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I235" s="1"/>
     </row>
-    <row r="236" spans="9:9">
+    <row r="236" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I236" s="1"/>
     </row>
-    <row r="237" spans="9:9">
+    <row r="237" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I237" s="1"/>
     </row>
-    <row r="238" spans="9:9">
+    <row r="238" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I238" s="1"/>
     </row>
-    <row r="239" spans="9:9">
+    <row r="239" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I239" s="1"/>
     </row>
-    <row r="240" spans="9:9">
+    <row r="240" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I240" s="1"/>
     </row>
-    <row r="241" spans="9:9">
+    <row r="241" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I241" s="1"/>
     </row>
-    <row r="242" spans="9:9">
+    <row r="242" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I242" s="1"/>
     </row>
-    <row r="243" spans="9:9">
+    <row r="243" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I243" s="1"/>
     </row>
-    <row r="244" spans="9:9">
+    <row r="244" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I244" s="1"/>
     </row>
-    <row r="245" spans="9:9">
+    <row r="245" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I245" s="1"/>
     </row>
-    <row r="246" spans="9:9">
+    <row r="246" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I246" s="1"/>
     </row>
-    <row r="247" spans="9:9">
+    <row r="247" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I247" s="1"/>
     </row>
-    <row r="248" spans="9:9">
+    <row r="248" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I248" s="1"/>
     </row>
-    <row r="249" spans="9:9">
+    <row r="249" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I249" s="1"/>
     </row>
-    <row r="250" spans="9:9">
+    <row r="250" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I250" s="1"/>
     </row>
-    <row r="251" spans="9:9">
+    <row r="251" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I251" s="1"/>
     </row>
-    <row r="252" spans="9:9">
+    <row r="252" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I252" s="1"/>
     </row>
-    <row r="253" spans="9:9">
+    <row r="253" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I253" s="1"/>
     </row>
-    <row r="254" spans="9:9">
+    <row r="254" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I254" s="1"/>
     </row>
-    <row r="255" spans="9:9">
+    <row r="255" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I255" s="1"/>
     </row>
-    <row r="256" spans="9:9">
+    <row r="256" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I256" s="1"/>
     </row>
-    <row r="257" spans="9:9">
+    <row r="257" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I257" s="1"/>
     </row>
-    <row r="258" spans="9:9">
+    <row r="258" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I258" s="1"/>
     </row>
-    <row r="259" spans="9:9">
+    <row r="259" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I259" s="1"/>
     </row>
-    <row r="260" spans="9:9">
+    <row r="260" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I260" s="1"/>
     </row>
-    <row r="261" spans="9:9">
+    <row r="261" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I261" s="1"/>
     </row>
-    <row r="262" spans="9:9">
+    <row r="262" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I262" s="1"/>
     </row>
-    <row r="263" spans="9:9">
+    <row r="263" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I263" s="1"/>
     </row>
-    <row r="264" spans="9:9">
+    <row r="264" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I264" s="1"/>
     </row>
-    <row r="265" spans="9:9">
+    <row r="265" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I265" s="1"/>
     </row>
-    <row r="266" spans="9:9">
+    <row r="266" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I266" s="1"/>
     </row>
-    <row r="267" spans="9:9">
+    <row r="267" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I267" s="1"/>
     </row>
-    <row r="268" spans="9:9">
+    <row r="268" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I268" s="1"/>
     </row>
-    <row r="269" spans="9:9">
+    <row r="269" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I269" s="1"/>
     </row>
-    <row r="270" spans="9:9">
+    <row r="270" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I270" s="1"/>
     </row>
-    <row r="271" spans="9:9">
+    <row r="271" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I271" s="1"/>
     </row>
-    <row r="272" spans="9:9">
+    <row r="272" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I272" s="1"/>
     </row>
-    <row r="273" spans="9:9">
+    <row r="273" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I273" s="1"/>
     </row>
-    <row r="274" spans="9:9">
+    <row r="274" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I274" s="1"/>
     </row>
-    <row r="275" spans="9:9">
+    <row r="275" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I275" s="1"/>
     </row>
-    <row r="276" spans="9:9">
+    <row r="276" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I276" s="1"/>
     </row>
-    <row r="277" spans="9:9">
+    <row r="277" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I277" s="1"/>
     </row>
-    <row r="278" spans="9:9">
+    <row r="278" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I278" s="1"/>
     </row>
-    <row r="279" spans="9:9">
+    <row r="279" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I279" s="1"/>
     </row>
-    <row r="280" spans="9:9">
+    <row r="280" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I280" s="1"/>
     </row>
-    <row r="281" spans="9:9">
+    <row r="281" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I281" s="1"/>
     </row>
-    <row r="282" spans="9:9">
+    <row r="282" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I282" s="1"/>
     </row>
-    <row r="283" spans="9:9">
+    <row r="283" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I283" s="1"/>
     </row>
-    <row r="284" spans="9:9">
+    <row r="284" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I284" s="1"/>
     </row>
-    <row r="285" spans="9:9">
+    <row r="285" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I285" s="1"/>
     </row>
-    <row r="286" spans="9:9">
+    <row r="286" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I286" s="1"/>
     </row>
-    <row r="287" spans="9:9">
+    <row r="287" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I287" s="1"/>
     </row>
-    <row r="288" spans="9:9">
+    <row r="288" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I288" s="1"/>
     </row>
-    <row r="289" spans="9:9">
+    <row r="289" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I289" s="1"/>
     </row>
-    <row r="290" spans="9:9">
+    <row r="290" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I290" s="1"/>
     </row>
-    <row r="291" spans="9:9">
+    <row r="291" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I291" s="1"/>
     </row>
-    <row r="292" spans="9:9">
+    <row r="292" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I292" s="1"/>
     </row>
-    <row r="293" spans="9:9">
+    <row r="293" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I293" s="1"/>
     </row>
-    <row r="294" spans="9:9">
+    <row r="294" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I294" s="1"/>
     </row>
-    <row r="295" spans="9:9">
+    <row r="295" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I295" s="1"/>
     </row>
-    <row r="296" spans="9:9">
+    <row r="296" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I296" s="1"/>
     </row>
-    <row r="297" spans="9:9">
+    <row r="297" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I297" s="1"/>
     </row>
-    <row r="298" spans="9:9">
+    <row r="298" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I298" s="1"/>
     </row>
-    <row r="299" spans="9:9">
+    <row r="299" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I299" s="1"/>
     </row>
-    <row r="300" spans="9:9">
+    <row r="300" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I300" s="1"/>
     </row>
-    <row r="301" spans="9:9">
+    <row r="301" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I301" s="1"/>
     </row>
-    <row r="302" spans="9:9">
+    <row r="302" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I302" s="1"/>
     </row>
-    <row r="303" spans="9:9">
+    <row r="303" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I303" s="1"/>
     </row>
-    <row r="304" spans="9:9">
+    <row r="304" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I304" s="1"/>
     </row>
-    <row r="305" spans="9:9">
+    <row r="305" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I305" s="1"/>
     </row>
-    <row r="306" spans="9:9">
+    <row r="306" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I306" s="1"/>
     </row>
-    <row r="307" spans="9:9">
+    <row r="307" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I307" s="1"/>
     </row>
-    <row r="308" spans="9:9">
+    <row r="308" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I308" s="1"/>
     </row>
-    <row r="309" spans="9:9">
+    <row r="309" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I309" s="1"/>
     </row>
-    <row r="310" spans="9:9">
+    <row r="310" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I310" s="1"/>
     </row>
-    <row r="311" spans="9:9">
+    <row r="311" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I311" s="1"/>
     </row>
-    <row r="312" spans="9:9">
+    <row r="312" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I312" s="1"/>
     </row>
-    <row r="313" spans="9:9">
+    <row r="313" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I313" s="1"/>
     </row>
-    <row r="314" spans="9:9">
+    <row r="314" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I314" s="1"/>
     </row>
-    <row r="315" spans="9:9">
+    <row r="315" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I315" s="1"/>
     </row>
-    <row r="316" spans="9:9">
+    <row r="316" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I316" s="1"/>
     </row>
-    <row r="317" spans="9:9">
+    <row r="317" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I317" s="1"/>
     </row>
-    <row r="318" spans="9:9">
+    <row r="318" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I318" s="1"/>
     </row>
-    <row r="319" spans="9:9">
+    <row r="319" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I319" s="1"/>
     </row>
-    <row r="320" spans="9:9">
+    <row r="320" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I320" s="1"/>
     </row>
-    <row r="321" spans="9:9">
+    <row r="321" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I321" s="1"/>
     </row>
-    <row r="322" spans="9:9">
+    <row r="322" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I322" s="1"/>
     </row>
-    <row r="323" spans="9:9">
+    <row r="323" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I323" s="1"/>
     </row>
-    <row r="324" spans="9:9">
+    <row r="324" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I324" s="1"/>
     </row>
-    <row r="325" spans="9:9">
+    <row r="325" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I325" s="1"/>
     </row>
-    <row r="326" spans="9:9">
+    <row r="326" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I326" s="1"/>
     </row>
-    <row r="327" spans="9:9">
+    <row r="327" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I327" s="1"/>
     </row>
-    <row r="328" spans="9:9">
+    <row r="328" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I328" s="1"/>
     </row>
-    <row r="329" spans="9:9">
+    <row r="329" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I329" s="1"/>
     </row>
-    <row r="330" spans="9:9">
+    <row r="330" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I330" s="1"/>
     </row>
-    <row r="331" spans="9:9">
+    <row r="331" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I331" s="1"/>
     </row>
-    <row r="332" spans="9:9">
+    <row r="332" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I332" s="1"/>
     </row>
-    <row r="333" spans="9:9">
+    <row r="333" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I333" s="1"/>
     </row>
-    <row r="334" spans="9:9">
+    <row r="334" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I334" s="1"/>
     </row>
-    <row r="335" spans="9:9">
+    <row r="335" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I335" s="1"/>
     </row>
-    <row r="336" spans="9:9">
+    <row r="336" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I336" s="1"/>
     </row>
-    <row r="337" spans="9:9">
+    <row r="337" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I337" s="1"/>
     </row>
-    <row r="338" spans="9:9">
+    <row r="338" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I338" s="1"/>
     </row>
-    <row r="339" spans="9:9">
+    <row r="339" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I339" s="1"/>
     </row>
-    <row r="340" spans="9:9">
+    <row r="340" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I340" s="1"/>
     </row>
-    <row r="341" spans="9:9">
+    <row r="341" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I341" s="1"/>
     </row>
-    <row r="342" spans="9:9">
+    <row r="342" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I342" s="1"/>
     </row>
-    <row r="343" spans="9:9">
+    <row r="343" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I343" s="1"/>
     </row>
-    <row r="344" spans="9:9">
+    <row r="344" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I344" s="1"/>
     </row>
-    <row r="345" spans="9:9">
+    <row r="345" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I345" s="1"/>
     </row>
-    <row r="346" spans="9:9">
+    <row r="346" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I346" s="1"/>
     </row>
-    <row r="347" spans="9:9">
+    <row r="347" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I347" s="1"/>
     </row>
-    <row r="348" spans="9:9">
+    <row r="348" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I348" s="1"/>
     </row>
-    <row r="349" spans="9:9">
+    <row r="349" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I349" s="1"/>
     </row>
-    <row r="350" spans="9:9">
+    <row r="350" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I350" s="1"/>
     </row>
-    <row r="351" spans="9:9">
+    <row r="351" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I351" s="1"/>
     </row>
-    <row r="352" spans="9:9">
+    <row r="352" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I352" s="1"/>
     </row>
-    <row r="353" spans="9:9">
+    <row r="353" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I353" s="1"/>
     </row>
-    <row r="354" spans="9:9">
+    <row r="354" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I354" s="1"/>
     </row>
-    <row r="355" spans="9:9">
+    <row r="355" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I355" s="1"/>
     </row>
-    <row r="356" spans="9:9">
+    <row r="356" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I356" s="1"/>
     </row>
-    <row r="357" spans="9:9">
+    <row r="357" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I357" s="1"/>
     </row>
-    <row r="358" spans="9:9">
+    <row r="358" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I358" s="1"/>
     </row>
-    <row r="359" spans="9:9">
+    <row r="359" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I359" s="1"/>
     </row>
-    <row r="360" spans="9:9">
+    <row r="360" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I360" s="1"/>
     </row>
-    <row r="361" spans="9:9">
+    <row r="361" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I361" s="1"/>
     </row>
-    <row r="362" spans="9:9">
+    <row r="362" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I362" s="1"/>
     </row>
-    <row r="363" spans="9:9">
+    <row r="363" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I363" s="1"/>
     </row>
-    <row r="364" spans="9:9">
+    <row r="364" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I364" s="1"/>
     </row>
-    <row r="365" spans="9:9">
+    <row r="365" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I365" s="1"/>
     </row>
   </sheetData>
@@ -7913,22 +7921,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AG83"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="32" width="9.6640625" style="94" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" style="94" bestFit="1" customWidth="1"/>
+    <col min="1" max="32" width="9.7109375" style="94" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.7109375" style="94" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12" style="94" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="8.6640625" style="94"/>
+    <col min="35" max="16384" width="8.7109375" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="94">
         <v>-3.9056E-2</v>
       </c>
@@ -8029,7 +8037,7 @@
         <v>5.2643000000000002E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="94">
         <v>-3.3692E-2</v>
       </c>
@@ -8130,7 +8138,7 @@
         <v>4.1652000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="94">
         <v>-2.8244999999999999E-2</v>
       </c>
@@ -8231,7 +8239,7 @@
         <v>3.2497999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="94">
         <v>-2.1885000000000002E-2</v>
       </c>
@@ -8332,7 +8340,7 @@
         <v>2.4211E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="94">
         <v>-1.9484999999999999E-2</v>
       </c>
@@ -8433,7 +8441,7 @@
         <v>1.8936999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="94">
         <v>-1.7160999999999999E-2</v>
       </c>
@@ -8534,7 +8542,7 @@
         <v>1.465E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="94">
         <v>-1.4643E-2</v>
       </c>
@@ -8635,7 +8643,7 @@
         <v>1.2485E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="94">
         <v>-1.37E-2</v>
       </c>
@@ -8736,7 +8744,7 @@
         <v>1.1401E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="94">
         <v>-1.1709000000000001E-2</v>
       </c>
@@ -8837,7 +8845,7 @@
         <v>1.0070000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="94">
         <v>-1.0751E-2</v>
       </c>
@@ -8938,7 +8946,7 @@
         <v>9.3360000000000005E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="94">
         <v>-9.0819999999999998E-3</v>
       </c>
@@ -9039,7 +9047,7 @@
         <v>8.3169999999999997E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="94">
         <v>-8.3219999999999995E-3</v>
       </c>
@@ -9140,7 +9148,7 @@
         <v>8.1679999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="94">
         <v>-6.7060000000000002E-3</v>
       </c>
@@ -9241,7 +9249,7 @@
         <v>7.0609999999999996E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="94">
         <v>-5.8760000000000001E-3</v>
       </c>
@@ -9342,7 +9350,7 @@
         <v>6.326E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="94">
         <v>-5.0299999999999997E-3</v>
       </c>
@@ -9443,7 +9451,7 @@
         <v>5.744E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="94">
         <v>-4.1399999999999996E-3</v>
       </c>
@@ -9544,7 +9552,7 @@
         <v>5.006E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="94">
         <v>-3.5590000000000001E-3</v>
       </c>
@@ -9645,7 +9653,7 @@
         <v>4.424E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="94">
         <v>-2.774E-3</v>
       </c>
@@ -9746,7 +9754,7 @@
         <v>3.9410000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="94">
         <v>-2.562E-3</v>
       </c>
@@ -9847,7 +9855,7 @@
         <v>3.5890000000000002E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="94">
         <v>-1.6969999999999999E-3</v>
       </c>
@@ -9948,7 +9956,7 @@
         <v>3.101E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="94">
         <v>-1.1620000000000001E-3</v>
       </c>
@@ -10049,7 +10057,7 @@
         <v>2.8270000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="94">
         <v>-7.3499999999999998E-4</v>
       </c>
@@ -10150,7 +10158,7 @@
         <v>2.3089999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="94">
         <v>-1.25E-4</v>
       </c>
@@ -10251,7 +10259,7 @@
         <v>2.0409999999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="94">
         <v>2.8400000000000002E-4</v>
       </c>
@@ -10352,7 +10360,7 @@
         <v>1.828E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="94">
         <v>9.1699999999999995E-4</v>
       </c>
@@ -10453,7 +10461,7 @@
         <v>1.4450000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="94">
         <v>1.2359999999999999E-3</v>
       </c>
@@ -10554,7 +10562,7 @@
         <v>1.2409999999999999E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="94">
         <v>1.4090000000000001E-3</v>
       </c>
@@ -10655,7 +10663,7 @@
         <v>1.0679999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="94">
         <v>1.8259999999999999E-3</v>
       </c>
@@ -10756,7 +10764,7 @@
         <v>9.9599999999999992E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="94">
         <v>1.9139999999999999E-3</v>
       </c>
@@ -10857,7 +10865,7 @@
         <v>8.0599999999999997E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="94">
         <v>2.0339999999999998E-3</v>
       </c>
@@ -10958,7 +10966,7 @@
         <v>6.1799999999999995E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="94">
         <v>1.9380000000000001E-3</v>
       </c>
@@ -11059,7 +11067,7 @@
         <v>5.1400000000000003E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="94">
         <v>1.645E-3</v>
       </c>
@@ -11160,7 +11168,7 @@
         <v>4.46E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="94">
         <v>1.353E-3</v>
       </c>
@@ -11261,7 +11269,7 @@
         <v>3.2200000000000002E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="94">
         <v>1.0009999999999999E-3</v>
       </c>
@@ -11362,7 +11370,7 @@
         <v>2.41E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="94">
         <v>7.1900000000000002E-4</v>
       </c>
@@ -11463,7 +11471,7 @@
         <v>2.1100000000000001E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="94">
         <v>3.7199999999999999E-4</v>
       </c>
@@ -11564,7 +11572,7 @@
         <v>1.44E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="94">
         <v>1.7699999999999999E-4</v>
       </c>
@@ -11665,7 +11673,7 @@
         <v>9.1000000000000003E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="94">
         <v>1.07E-4</v>
       </c>
@@ -11766,7 +11774,7 @@
         <v>1.7899999999999999E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="94">
         <v>3.8999999999999999E-5</v>
       </c>
@@ -11867,7 +11875,7 @@
         <v>7.3999999999999996E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="94">
         <v>3.1100000000000002E-4</v>
       </c>
@@ -11968,7 +11976,7 @@
         <v>1.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="94">
         <v>3.5E-4</v>
       </c>
@@ -12069,7 +12077,7 @@
         <v>4.4799999999999999E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="94">
         <v>5.7600000000000001E-4</v>
       </c>
@@ -12170,7 +12178,7 @@
         <v>2.7300000000000002E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:33">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="94">
         <v>1.0039999999999999E-3</v>
       </c>
@@ -12271,7 +12279,7 @@
         <v>2.4899999999999998E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="94">
         <v>1.2390000000000001E-3</v>
       </c>
@@ -12372,7 +12380,7 @@
         <v>3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="94">
         <v>1.7520000000000001E-3</v>
       </c>
@@ -12473,7 +12481,7 @@
         <v>-3.4E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="94">
         <v>1.838E-3</v>
       </c>
@@ -12574,7 +12582,7 @@
         <v>-1.46E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="94">
         <v>2.075E-3</v>
       </c>
@@ -12675,7 +12683,7 @@
         <v>-1.37E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="94">
         <v>2.1289999999999998E-3</v>
       </c>
@@ -12776,7 +12784,7 @@
         <v>-1.08E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:33">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="94">
         <v>2.0890000000000001E-3</v>
       </c>
@@ -12877,7 +12885,7 @@
         <v>-3.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="50" spans="1:33">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="94">
         <v>2.1879999999999998E-3</v>
       </c>
@@ -12978,7 +12986,7 @@
         <v>1.7E-5</v>
       </c>
     </row>
-    <row r="51" spans="1:33">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="94">
         <v>2.3649999999999999E-3</v>
       </c>
@@ -13079,7 +13087,7 @@
         <v>-1.2999999999999999E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:33">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="94">
         <v>1.838E-3</v>
       </c>
@@ -13180,7 +13188,7 @@
         <v>1.8E-5</v>
       </c>
     </row>
-    <row r="53" spans="1:33">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="94">
         <v>1.338E-3</v>
       </c>
@@ -13281,7 +13289,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:33">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="94">
         <v>1.207E-3</v>
       </c>
@@ -13382,7 +13390,7 @@
         <v>1.9699999999999999E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:33">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="94">
         <v>8.5300000000000003E-4</v>
       </c>
@@ -13483,7 +13491,7 @@
         <v>1.8100000000000001E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:33">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="94">
         <v>6.3000000000000003E-4</v>
       </c>
@@ -13584,7 +13592,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:33">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="94">
         <v>4.1199999999999999E-4</v>
       </c>
@@ -13685,7 +13693,7 @@
         <v>3.1300000000000002E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:33">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="94">
         <v>1.74E-4</v>
       </c>
@@ -13786,7 +13794,7 @@
         <v>2.0900000000000001E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:33">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="94">
         <v>1.5100000000000001E-4</v>
       </c>
@@ -13887,7 +13895,7 @@
         <v>2.2900000000000001E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:33">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="94">
         <v>1.3799999999999999E-4</v>
       </c>
@@ -13988,7 +13996,7 @@
         <v>8.6000000000000003E-5</v>
       </c>
     </row>
-    <row r="61" spans="1:33">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="94">
         <v>3.1700000000000001E-4</v>
       </c>
@@ -14089,7 +14097,7 @@
         <v>6.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="62" spans="1:33">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="94">
         <v>6.0400000000000004E-4</v>
       </c>
@@ -14190,7 +14198,7 @@
         <v>-1.3200000000000001E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:33">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="94">
         <v>7.7700000000000002E-4</v>
       </c>
@@ -14291,7 +14299,7 @@
         <v>-2.61E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:33">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="94">
         <v>9.7999999999999997E-4</v>
       </c>
@@ -14392,7 +14400,7 @@
         <v>-3.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:33">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="94">
         <v>1.2750000000000001E-3</v>
       </c>
@@ -14493,7 +14501,7 @@
         <v>-4.8099999999999998E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:33">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="94">
         <v>1.444E-3</v>
       </c>
@@ -14594,7 +14602,7 @@
         <v>-6.6299999999999996E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:33">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="94">
         <v>1.684E-3</v>
       </c>
@@ -14695,7 +14703,7 @@
         <v>-7.7099999999999998E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:33">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" s="94">
         <v>1.9810000000000001E-3</v>
       </c>
@@ -14796,7 +14804,7 @@
         <v>-8.9099999999999997E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:33">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" s="94">
         <v>2.0609999999999999E-3</v>
       </c>
@@ -14897,7 +14905,7 @@
         <v>-9.5399999999999999E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:33">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" s="94">
         <v>1.8979999999999999E-3</v>
       </c>
@@ -14998,7 +15006,7 @@
         <v>-8.9099999999999997E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:33">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" s="94">
         <v>1.9319999999999999E-3</v>
       </c>
@@ -15099,7 +15107,7 @@
         <v>-8.0900000000000004E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:33">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="94">
         <v>1.505E-3</v>
       </c>
@@ -15200,7 +15208,7 @@
         <v>-7.6000000000000004E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:33">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" s="94">
         <v>1.4170000000000001E-3</v>
       </c>
@@ -15301,7 +15309,7 @@
         <v>-7.5799999999999999E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:33">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" s="94">
         <v>1.183E-3</v>
       </c>
@@ -15402,7 +15410,7 @@
         <v>-7.6000000000000004E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:33">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" s="94">
         <v>1.0319999999999999E-3</v>
       </c>
@@ -15503,7 +15511,7 @@
         <v>-7.1000000000000002E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:33">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" s="94">
         <v>8.1099999999999998E-4</v>
       </c>
@@ -15604,7 +15612,7 @@
         <v>-6.2799999999999998E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:33">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" s="94">
         <v>7.8399999999999997E-4</v>
       </c>
@@ -15705,7 +15713,7 @@
         <v>-4.8200000000000001E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:33">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" s="94">
         <v>5.6999999999999998E-4</v>
       </c>
@@ -15806,7 +15814,7 @@
         <v>-3.8299999999999999E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:33">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="94">
         <v>6.7900000000000002E-4</v>
       </c>
@@ -15907,7 +15915,7 @@
         <v>-3.1300000000000002E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:33">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" s="94">
         <v>7.5199999999999996E-4</v>
       </c>
@@ -16008,7 +16016,7 @@
         <v>-1.73E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:33">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" s="94">
         <v>5.3700000000000004E-4</v>
       </c>
@@ -16109,7 +16117,7 @@
         <v>-2.2100000000000001E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:33">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" s="94">
         <v>9.7900000000000005E-4</v>
       </c>
@@ -16210,7 +16218,7 @@
         <v>-4.3000000000000002E-5</v>
       </c>
     </row>
-    <row r="83" spans="1:33">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" s="94">
         <v>1.1230000000000001E-3</v>
       </c>
@@ -16324,19 +16332,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AG83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="94"/>
+    <col min="1" max="16384" width="8.7109375" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="94">
         <v>3.2981999999999997E-2</v>
       </c>
@@ -16437,7 +16445,7 @@
         <v>-1.7877000000000001E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="94">
         <v>2.7175000000000001E-2</v>
       </c>
@@ -16538,7 +16546,7 @@
         <v>-1.3729E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="94">
         <v>1.9446999999999999E-2</v>
       </c>
@@ -16639,7 +16647,7 @@
         <v>-8.2889999999999995E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="94">
         <v>1.6649000000000001E-2</v>
       </c>
@@ -16740,7 +16748,7 @@
         <v>-4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="94">
         <v>1.1133000000000001E-2</v>
       </c>
@@ -16841,7 +16849,7 @@
         <v>-1.722E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="94">
         <v>7.8740000000000008E-3</v>
       </c>
@@ -16942,7 +16950,7 @@
         <v>1.3649999999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="94">
         <v>4.5589999999999997E-3</v>
       </c>
@@ -17043,7 +17051,7 @@
         <v>3.7060000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="94">
         <v>1.191E-3</v>
       </c>
@@ -17144,7 +17152,7 @@
         <v>5.1619999999999999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="94">
         <v>-9.1799999999999998E-4</v>
       </c>
@@ -17245,7 +17253,7 @@
         <v>6.9410000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="94">
         <v>-2.183E-3</v>
       </c>
@@ -17346,7 +17354,7 @@
         <v>8.2240000000000004E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="94">
         <v>-3.4989999999999999E-3</v>
       </c>
@@ -17447,7 +17455,7 @@
         <v>8.9219999999999994E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="94">
         <v>-4.1900000000000001E-3</v>
       </c>
@@ -17548,7 +17556,7 @@
         <v>9.5490000000000002E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="94">
         <v>-4.4510000000000001E-3</v>
       </c>
@@ -17649,7 +17657,7 @@
         <v>1.0352E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="94">
         <v>-5.0819999999999997E-3</v>
       </c>
@@ -17750,7 +17758,7 @@
         <v>1.0211E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="94">
         <v>-4.6439999999999997E-3</v>
       </c>
@@ -17851,7 +17859,7 @@
         <v>1.061E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="94">
         <v>-4.7340000000000004E-3</v>
       </c>
@@ -17952,7 +17960,7 @@
         <v>1.0521000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="94">
         <v>-4.4780000000000002E-3</v>
       </c>
@@ -18053,7 +18061,7 @@
         <v>1.0522E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="94">
         <v>-3.9589999999999998E-3</v>
       </c>
@@ -18154,7 +18162,7 @@
         <v>1.0322E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="94">
         <v>-4.0959999999999998E-3</v>
       </c>
@@ -18255,7 +18263,7 @@
         <v>1.0004000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="94">
         <v>-3.4459999999999998E-3</v>
       </c>
@@ -18356,7 +18364,7 @@
         <v>1.0019E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="94">
         <v>-3.1289999999999998E-3</v>
       </c>
@@ -18457,7 +18465,7 @@
         <v>9.5659999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="94">
         <v>-3.3289999999999999E-3</v>
       </c>
@@ -18558,7 +18566,7 @@
         <v>9.2940000000000002E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="94">
         <v>-2.4099999999999998E-3</v>
       </c>
@@ -18659,7 +18667,7 @@
         <v>9.0550000000000005E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="94">
         <v>-2.5860000000000002E-3</v>
       </c>
@@ -18760,7 +18768,7 @@
         <v>8.6420000000000004E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="94">
         <v>-2.2260000000000001E-3</v>
       </c>
@@ -18861,7 +18869,7 @@
         <v>8.2749999999999994E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="94">
         <v>-1.8630000000000001E-3</v>
       </c>
@@ -18962,7 +18970,7 @@
         <v>7.9209999999999992E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="94">
         <v>-1.9430000000000001E-3</v>
       </c>
@@ -19063,7 +19071,7 @@
         <v>7.4830000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="94">
         <v>-1.4549999999999999E-3</v>
       </c>
@@ -19164,7 +19172,7 @@
         <v>6.8960000000000002E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="94">
         <v>-1.219E-3</v>
       </c>
@@ -19265,7 +19273,7 @@
         <v>6.6020000000000002E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="94">
         <v>-1.075E-3</v>
       </c>
@@ -19366,7 +19374,7 @@
         <v>5.9080000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="94">
         <v>-9.3800000000000003E-4</v>
       </c>
@@ -19467,7 +19475,7 @@
         <v>5.6010000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="94">
         <v>-1.31E-3</v>
       </c>
@@ -19568,7 +19576,7 @@
         <v>5.2979999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="94">
         <v>-1.5250000000000001E-3</v>
       </c>
@@ -19669,7 +19677,7 @@
         <v>4.8380000000000003E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="94">
         <v>-1.619E-3</v>
       </c>
@@ -19770,7 +19778,7 @@
         <v>4.4920000000000003E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="94">
         <v>-1.949E-3</v>
       </c>
@@ -19871,7 +19879,7 @@
         <v>4.2560000000000002E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="94">
         <v>-1.833E-3</v>
       </c>
@@ -19972,7 +19980,7 @@
         <v>3.9360000000000003E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="94">
         <v>-1.766E-3</v>
       </c>
@@ -20073,7 +20081,7 @@
         <v>3.7030000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="94">
         <v>-2.111E-3</v>
       </c>
@@ -20174,7 +20182,7 @@
         <v>3.5209999999999998E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="94">
         <v>-2.0339999999999998E-3</v>
       </c>
@@ -20275,7 +20283,7 @@
         <v>3.3549999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="94">
         <v>-2.0339999999999998E-3</v>
       </c>
@@ -20376,7 +20384,7 @@
         <v>3.1979999999999999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="94">
         <v>-5.8100000000000003E-4</v>
       </c>
@@ -20477,7 +20485,7 @@
         <v>3.2980000000000002E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="94">
         <v>-6.2799999999999998E-4</v>
       </c>
@@ -20578,7 +20586,7 @@
         <v>3.235E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:33">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="94">
         <v>-6.5600000000000001E-4</v>
       </c>
@@ -20679,7 +20687,7 @@
         <v>3.0130000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="94">
         <v>-9.5799999999999998E-4</v>
       </c>
@@ -20780,7 +20788,7 @@
         <v>2.7179999999999999E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="94">
         <v>-1.0510000000000001E-3</v>
       </c>
@@ -20881,7 +20889,7 @@
         <v>2.4499999999999999E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="94">
         <v>-9.2400000000000002E-4</v>
       </c>
@@ -20982,7 +20990,7 @@
         <v>2.2269999999999998E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="94">
         <v>-1.034E-3</v>
       </c>
@@ -21083,7 +21091,7 @@
         <v>2.0110000000000002E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="94">
         <v>-1.2210000000000001E-3</v>
       </c>
@@ -21184,7 +21192,7 @@
         <v>1.75E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:33">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="94">
         <v>-1.305E-3</v>
       </c>
@@ -21285,7 +21293,7 @@
         <v>1.6900000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:33">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="94">
         <v>-1.3799999999999999E-3</v>
       </c>
@@ -21386,7 +21394,7 @@
         <v>1.6770000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:33">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="94">
         <v>-1.485E-3</v>
       </c>
@@ -21487,7 +21495,7 @@
         <v>1.67E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:33">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="94">
         <v>-1.603E-3</v>
       </c>
@@ -21588,7 +21596,7 @@
         <v>1.763E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:33">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="94">
         <v>-1.722E-3</v>
       </c>
@@ -21689,7 +21697,7 @@
         <v>1.7149999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:33">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="94">
         <v>-1.6230000000000001E-3</v>
       </c>
@@ -21790,7 +21798,7 @@
         <v>1.8929999999999999E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:33">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="94">
         <v>-1.957E-3</v>
       </c>
@@ -21891,7 +21899,7 @@
         <v>1.9819999999999998E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:33">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="94">
         <v>-2.1640000000000001E-3</v>
       </c>
@@ -21992,7 +22000,7 @@
         <v>2.0249999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:33">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="94">
         <v>-2.4429999999999999E-3</v>
       </c>
@@ -22093,7 +22101,7 @@
         <v>2.101E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:33">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="94">
         <v>-2.983E-3</v>
       </c>
@@ -22194,7 +22202,7 @@
         <v>2.0950000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:33">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="94">
         <v>-2.7650000000000001E-3</v>
       </c>
@@ -22295,7 +22303,7 @@
         <v>2.1320000000000002E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:33">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="94">
         <v>-3.081E-3</v>
       </c>
@@ -22396,7 +22404,7 @@
         <v>2.173E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:33">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="94">
         <v>-3.6830000000000001E-3</v>
       </c>
@@ -22497,7 +22505,7 @@
         <v>2.1480000000000002E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:33">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="94">
         <v>-3.4039999999999999E-3</v>
       </c>
@@ -22598,7 +22606,7 @@
         <v>2.062E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:33">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="94">
         <v>-4.0439999999999999E-3</v>
       </c>
@@ -22699,7 +22707,7 @@
         <v>2.0409999999999998E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:33">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="94">
         <v>-4.4169999999999999E-3</v>
       </c>
@@ -22800,7 +22808,7 @@
         <v>1.9120000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:33">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="94">
         <v>-4.0070000000000001E-3</v>
       </c>
@@ -22901,7 +22909,7 @@
         <v>1.6459999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:33">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="94">
         <v>-4.5669999999999999E-3</v>
       </c>
@@ -23002,7 +23010,7 @@
         <v>1.5100000000000001E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:33">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="94">
         <v>-4.6769999999999997E-3</v>
       </c>
@@ -23103,7 +23111,7 @@
         <v>1.284E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:33">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" s="94">
         <v>-3.9069999999999999E-3</v>
       </c>
@@ -23204,7 +23212,7 @@
         <v>8.7699999999999996E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:33">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" s="94">
         <v>-4.4099999999999999E-3</v>
       </c>
@@ -23305,7 +23313,7 @@
         <v>6.1200000000000002E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:33">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" s="94">
         <v>-4.0429999999999997E-3</v>
       </c>
@@ -23406,7 +23414,7 @@
         <v>3.6499999999999998E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:33">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" s="94">
         <v>-4.0610000000000004E-3</v>
       </c>
@@ -23507,7 +23515,7 @@
         <v>1.5E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:33">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="94">
         <v>-4.5570000000000003E-3</v>
       </c>
@@ -23608,7 +23616,7 @@
         <v>-2.4899999999999998E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:33">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" s="94">
         <v>-4.4640000000000001E-3</v>
       </c>
@@ -23709,7 +23717,7 @@
         <v>-4.66E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:33">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" s="94">
         <v>-4.9230000000000003E-3</v>
       </c>
@@ -23810,7 +23818,7 @@
         <v>-7.1199999999999996E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:33">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" s="94">
         <v>-5.3070000000000001E-3</v>
       </c>
@@ -23911,7 +23919,7 @@
         <v>-8.7500000000000002E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:33">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" s="94">
         <v>-5.5389999999999997E-3</v>
       </c>
@@ -24012,7 +24020,7 @@
         <v>-9.68E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:33">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" s="94">
         <v>-5.8599999999999998E-3</v>
       </c>
@@ -24113,7 +24121,7 @@
         <v>-1.1180000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:33">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" s="94">
         <v>-5.8780000000000004E-3</v>
       </c>
@@ -24214,7 +24222,7 @@
         <v>-1.2689999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:33">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="94">
         <v>-5.9230000000000003E-3</v>
       </c>
@@ -24315,7 +24323,7 @@
         <v>-1.392E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:33">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" s="94">
         <v>-6.3740000000000003E-3</v>
       </c>
@@ -24416,7 +24424,7 @@
         <v>-1.3749999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:33">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" s="94">
         <v>-6.2199999999999998E-3</v>
       </c>
@@ -24517,7 +24525,7 @@
         <v>-1.5460000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:33">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" s="94">
         <v>-6.1390000000000004E-3</v>
       </c>
@@ -24618,7 +24626,7 @@
         <v>-1.505E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:33">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" s="94">
         <v>-6.4159999999999998E-3</v>
       </c>
@@ -24737,14 +24745,14 @@
       <selection activeCell="AJ87" sqref="AJ87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="35" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="35" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-1.8346999999999999E-2</v>
       </c>
@@ -24854,7 +24862,7 @@
         <v>1.2581E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1.7964000000000001E-2</v>
       </c>
@@ -24964,7 +24972,7 @@
         <v>1.1094E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-1.6636000000000001E-2</v>
       </c>
@@ -25074,7 +25082,7 @@
         <v>9.4039999999999992E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-1.4074E-2</v>
       </c>
@@ -25184,7 +25192,7 @@
         <v>7.1799999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-1.2454E-2</v>
       </c>
@@ -25294,7 +25302,7 @@
         <v>5.7679999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-1.0580000000000001E-2</v>
       </c>
@@ -25404,7 +25412,7 @@
         <v>5.6389999999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-9.4619999999999999E-3</v>
       </c>
@@ -25514,7 +25522,7 @@
         <v>4.9579999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-8.7309999999999992E-3</v>
       </c>
@@ -25624,7 +25632,7 @@
         <v>4.3559999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-7.4510000000000002E-3</v>
       </c>
@@ -25734,7 +25742,7 @@
         <v>4.3210000000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-6.5979999999999997E-3</v>
       </c>
@@ -25844,7 +25852,7 @@
         <v>3.529E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-6.2969999999999996E-3</v>
       </c>
@@ -25954,7 +25962,7 @@
         <v>3.0079999999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-5.4270000000000004E-3</v>
       </c>
@@ -26064,7 +26072,7 @@
         <v>2.7880000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-4.8780000000000004E-3</v>
       </c>
@@ -26174,7 +26182,7 @@
         <v>2.6480000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-4.1130000000000003E-3</v>
       </c>
@@ -26284,7 +26292,7 @@
         <v>2.454E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-3.8479999999999999E-3</v>
       </c>
@@ -26394,7 +26402,7 @@
         <v>2.5969999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-3.4150000000000001E-3</v>
       </c>
@@ -26504,7 +26512,7 @@
         <v>2.5479999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-3.5019999999999999E-3</v>
       </c>
@@ -26614,7 +26622,7 @@
         <v>2.4529999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-2.7599999999999999E-3</v>
       </c>
@@ -26724,7 +26732,7 @@
         <v>2.3110000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-2.8389999999999999E-3</v>
       </c>
@@ -26834,7 +26842,7 @@
         <v>2.4499999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-2.5790000000000001E-3</v>
       </c>
@@ -26944,7 +26952,7 @@
         <v>2.2829999999999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-2.3149999999999998E-3</v>
       </c>
@@ -27054,7 +27062,7 @@
         <v>2.0500000000000002E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-2.2829999999999999E-3</v>
       </c>
@@ -27164,7 +27172,7 @@
         <v>2.1159999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-2.1670000000000001E-3</v>
       </c>
@@ -27274,7 +27282,7 @@
         <v>2.5019999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-2.2599999999999999E-3</v>
       </c>
@@ -27384,7 +27392,7 @@
         <v>2.2460000000000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-2.2720000000000001E-3</v>
       </c>
@@ -27494,7 +27502,7 @@
         <v>2.2239999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-2.1979999999999999E-3</v>
       </c>
@@ -27604,7 +27612,7 @@
         <v>2.1510000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-2.1779999999999998E-3</v>
       </c>
@@ -27714,7 +27722,7 @@
         <v>2.0760000000000002E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-2.2290000000000001E-3</v>
       </c>
@@ -27824,7 +27832,7 @@
         <v>1.9740000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-2.1059999999999998E-3</v>
       </c>
@@ -27934,7 +27942,7 @@
         <v>2.0249999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-2.0669999999999998E-3</v>
       </c>
@@ -28044,7 +28052,7 @@
         <v>2.042E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-2.2469999999999999E-3</v>
       </c>
@@ -28154,7 +28162,7 @@
         <v>2.0339999999999998E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-1.91E-3</v>
       </c>
@@ -28264,7 +28272,7 @@
         <v>2.1909999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-1.9E-3</v>
       </c>
@@ -28374,7 +28382,7 @@
         <v>2.088E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-1.9789999999999999E-3</v>
       </c>
@@ -28484,7 +28492,7 @@
         <v>2.0300000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-2.0920000000000001E-3</v>
       </c>
@@ -28594,7 +28602,7 @@
         <v>2.0110000000000002E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-2.2290000000000001E-3</v>
       </c>
@@ -28704,7 +28712,7 @@
         <v>1.933E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-2.1640000000000001E-3</v>
       </c>
@@ -28814,7 +28822,7 @@
         <v>1.8159999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-1.9269999999999999E-3</v>
       </c>
@@ -28924,7 +28932,7 @@
         <v>1.8129999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-1.6069999999999999E-3</v>
       </c>
@@ -29034,7 +29042,7 @@
         <v>1.622E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-1.2149999999999999E-3</v>
       </c>
@@ -29144,7 +29152,7 @@
         <v>1.4829999999999999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-8.25E-4</v>
       </c>
@@ -29254,7 +29262,7 @@
         <v>1.485E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-6.3699999999999998E-4</v>
       </c>
@@ -29364,7 +29372,7 @@
         <v>1.371E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-1.3200000000000001E-4</v>
       </c>
@@ -29474,7 +29482,7 @@
         <v>1.315E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1.22E-4</v>
       </c>
@@ -29584,7 +29592,7 @@
         <v>1.238E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4.6099999999999998E-4</v>
       </c>
@@ -29694,7 +29702,7 @@
         <v>1.191E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1.47E-4</v>
       </c>
@@ -29804,7 +29812,7 @@
         <v>6.1799999999999995E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8.0000000000000007E-5</v>
       </c>
@@ -29914,7 +29922,7 @@
         <v>6.4199999999999999E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-6.0000000000000002E-6</v>
       </c>
@@ -30024,7 +30032,7 @@
         <v>5.6599999999999999E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-6.9999999999999999E-6</v>
       </c>
@@ -30134,7 +30142,7 @@
         <v>5.6700000000000001E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2.43E-4</v>
       </c>
@@ -30244,7 +30252,7 @@
         <v>5.8900000000000001E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-4.0000000000000003E-5</v>
       </c>
@@ -30354,7 +30362,7 @@
         <v>6.2100000000000002E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-2.6699999999999998E-4</v>
       </c>
@@ -30464,7 +30472,7 @@
         <v>7.3899999999999997E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-3.3399999999999999E-4</v>
       </c>
@@ -30574,7 +30582,7 @@
         <v>6.7599999999999995E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-2.2800000000000001E-4</v>
       </c>
@@ -30684,7 +30692,7 @@
         <v>7.3399999999999995E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-4.1599999999999997E-4</v>
       </c>
@@ -30794,7 +30802,7 @@
         <v>7.2599999999999997E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-4.2200000000000001E-4</v>
       </c>
@@ -30904,7 +30912,7 @@
         <v>7.6000000000000004E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-3.8299999999999999E-4</v>
       </c>
@@ -31014,7 +31022,7 @@
         <v>7.6300000000000001E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-3.3700000000000001E-4</v>
       </c>
@@ -31124,7 +31132,7 @@
         <v>7.94E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-2.8800000000000001E-4</v>
       </c>
@@ -31234,7 +31242,7 @@
         <v>7.6499999999999995E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-2.6800000000000001E-4</v>
       </c>
@@ -31344,7 +31352,7 @@
         <v>8.2299999999999995E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-3.1199999999999999E-4</v>
       </c>
@@ -31454,7 +31462,7 @@
         <v>8.2799999999999996E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-3.0899999999999998E-4</v>
       </c>
@@ -31564,7 +31572,7 @@
         <v>8.3000000000000001E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-2.5500000000000002E-4</v>
       </c>
@@ -31674,7 +31682,7 @@
         <v>8.1099999999999998E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-1.2899999999999999E-4</v>
       </c>
@@ -31784,7 +31792,7 @@
         <v>8.6799999999999996E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-1.1900000000000001E-4</v>
       </c>
@@ -31894,7 +31902,7 @@
         <v>8.4599999999999996E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-2.8200000000000002E-4</v>
       </c>
@@ -32004,7 +32012,7 @@
         <v>8.4800000000000001E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-1.3899999999999999E-4</v>
       </c>
@@ -32114,7 +32122,7 @@
         <v>7.76E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-1.8100000000000001E-4</v>
       </c>
@@ -32224,7 +32232,7 @@
         <v>7.4399999999999998E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-6.2000000000000003E-5</v>
       </c>
@@ -32334,7 +32342,7 @@
         <v>8.0800000000000002E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-1.44E-4</v>
       </c>
@@ -32444,7 +32452,7 @@
         <v>6.8300000000000001E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-2.1000000000000001E-4</v>
       </c>
@@ -32554,7 +32562,7 @@
         <v>7.45E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-1.7200000000000001E-4</v>
       </c>
@@ -32664,7 +32672,7 @@
         <v>7.3999999999999999E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-8.6000000000000003E-5</v>
       </c>
@@ -32774,7 +32782,7 @@
         <v>6.6699999999999995E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-2.4499999999999999E-4</v>
       </c>
@@ -32884,7 +32892,7 @@
         <v>5.9500000000000004E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-1.74E-4</v>
       </c>
@@ -32994,7 +33002,7 @@
         <v>5.2400000000000005E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-1.35E-4</v>
       </c>
@@ -33104,7 +33112,7 @@
         <v>5.1099999999999995E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1.4200000000000001E-4</v>
       </c>
@@ -33214,7 +33222,7 @@
         <v>4.8500000000000003E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3.7800000000000003E-4</v>
       </c>
@@ -33324,7 +33332,7 @@
         <v>4.5399999999999998E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4.3899999999999999E-4</v>
       </c>
@@ -33434,7 +33442,7 @@
         <v>4.5300000000000001E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4.95E-4</v>
       </c>
@@ -33544,7 +33552,7 @@
         <v>3.4499999999999998E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4.0999999999999999E-4</v>
       </c>
@@ -33654,7 +33662,7 @@
         <v>3.9500000000000001E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4.6200000000000001E-4</v>
       </c>
@@ -33764,7 +33772,7 @@
         <v>2.8699999999999998E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>6.4000000000000005E-4</v>
       </c>
@@ -33874,7 +33882,7 @@
         <v>3.2299999999999999E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3.8400000000000001E-4</v>
       </c>
@@ -33984,7 +33992,7 @@
         <v>2.9399999999999999E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3.0600000000000001E-4</v>
       </c>
@@ -34094,7 +34102,7 @@
         <v>3.8699999999999997E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1.9100000000000001E-4</v>
       </c>
@@ -34223,15 +34231,15 @@
       <selection activeCell="AJ87" sqref="AJ87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="25" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" customWidth="1"/>
-    <col min="27" max="36" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" customWidth="1"/>
+    <col min="27" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-2.0298E-2</v>
       </c>
@@ -34341,7 +34349,7 @@
         <v>-8.4910000000000003E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-2.385E-2</v>
       </c>
@@ -34451,7 +34459,7 @@
         <v>-4.6540000000000002E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-2.6554000000000001E-2</v>
       </c>
@@ -34561,7 +34569,7 @@
         <v>-4.8050000000000002E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-2.7872000000000001E-2</v>
       </c>
@@ -34671,7 +34679,7 @@
         <v>-3.7190000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-2.9694000000000002E-2</v>
       </c>
@@ -34781,7 +34789,7 @@
         <v>-3.3509999999999998E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-2.9180000000000001E-2</v>
       </c>
@@ -34891,7 +34899,7 @@
         <v>-2.4350000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-2.7980000000000001E-2</v>
       </c>
@@ -35001,7 +35009,7 @@
         <v>-2.6090000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-2.7342999999999999E-2</v>
       </c>
@@ -35111,7 +35119,7 @@
         <v>-2.2980000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-2.5859E-2</v>
       </c>
@@ -35221,7 +35229,7 @@
         <v>-3.199E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-2.4511000000000002E-2</v>
       </c>
@@ -35331,7 +35339,7 @@
         <v>-2.7539999999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-2.325E-2</v>
       </c>
@@ -35441,7 +35449,7 @@
         <v>-2.6909999999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-2.1994E-2</v>
       </c>
@@ -35551,7 +35559,7 @@
         <v>-3.3119999999999998E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-2.0856E-2</v>
       </c>
@@ -35661,7 +35669,7 @@
         <v>-3.4859999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-1.9923E-2</v>
       </c>
@@ -35771,7 +35779,7 @@
         <v>-3.5950000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-1.8554999999999999E-2</v>
       </c>
@@ -35881,7 +35889,7 @@
         <v>-3.5899999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-1.8116E-2</v>
       </c>
@@ -35991,7 +35999,7 @@
         <v>-3.8449999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-1.6247999999999999E-2</v>
       </c>
@@ -36101,7 +36109,7 @@
         <v>-4.0080000000000003E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-1.5524E-2</v>
       </c>
@@ -36211,7 +36219,7 @@
         <v>-3.9439999999999996E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-1.5018E-2</v>
       </c>
@@ -36321,7 +36329,7 @@
         <v>-4.1660000000000004E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-1.3853000000000001E-2</v>
       </c>
@@ -36431,7 +36439,7 @@
         <v>-4.274E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-1.3354E-2</v>
       </c>
@@ -36541,7 +36549,7 @@
         <v>-4.2310000000000004E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-1.2843E-2</v>
       </c>
@@ -36651,7 +36659,7 @@
         <v>-4.6560000000000004E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1.1878E-2</v>
       </c>
@@ -36761,7 +36769,7 @@
         <v>-4.5490000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.1549E-2</v>
       </c>
@@ -36871,7 +36879,7 @@
         <v>-4.7759999999999999E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-1.0791E-2</v>
       </c>
@@ -36981,7 +36989,7 @@
         <v>-4.8570000000000002E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-1.0262E-2</v>
       </c>
@@ -37091,7 +37099,7 @@
         <v>-4.7879999999999997E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-9.698E-3</v>
       </c>
@@ -37201,7 +37209,7 @@
         <v>-4.718E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-9.3760000000000007E-3</v>
       </c>
@@ -37311,7 +37319,7 @@
         <v>-4.9360000000000003E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-8.9750000000000003E-3</v>
       </c>
@@ -37421,7 +37429,7 @@
         <v>-4.7790000000000003E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-8.3820000000000006E-3</v>
       </c>
@@ -37531,7 +37539,7 @@
         <v>-5.025E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-7.8200000000000006E-3</v>
       </c>
@@ -37641,7 +37649,7 @@
         <v>-4.9800000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-7.3419999999999996E-3</v>
       </c>
@@ -37751,7 +37759,7 @@
         <v>-4.9059999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-6.8380000000000003E-3</v>
       </c>
@@ -37861,7 +37869,7 @@
         <v>-4.9919999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-6.4099999999999999E-3</v>
       </c>
@@ -37971,7 +37979,7 @@
         <v>-5.0559999999999997E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-5.934E-3</v>
       </c>
@@ -38081,7 +38089,7 @@
         <v>-4.9959999999999996E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-5.6010000000000001E-3</v>
       </c>
@@ -38191,7 +38199,7 @@
         <v>-5.0670000000000003E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-5.5030000000000001E-3</v>
       </c>
@@ -38301,7 +38309,7 @@
         <v>-5.0309999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-5.2940000000000001E-3</v>
       </c>
@@ -38411,7 +38419,7 @@
         <v>-4.9740000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-5.5750000000000001E-3</v>
       </c>
@@ -38521,7 +38529,7 @@
         <v>-4.9170000000000004E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-5.5770000000000004E-3</v>
       </c>
@@ -38631,7 +38639,7 @@
         <v>-4.9540000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-5.7239999999999999E-3</v>
       </c>
@@ -38741,7 +38749,7 @@
         <v>-4.9639999999999997E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-5.9300000000000004E-3</v>
       </c>
@@ -38851,7 +38859,7 @@
         <v>-4.901E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-6.012E-3</v>
       </c>
@@ -38961,7 +38969,7 @@
         <v>-4.8640000000000003E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-5.9909999999999998E-3</v>
       </c>
@@ -39071,7 +39079,7 @@
         <v>-4.9119999999999997E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-5.9589999999999999E-3</v>
       </c>
@@ -39181,7 +39189,7 @@
         <v>-4.8820000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-4.4860000000000004E-3</v>
       </c>
@@ -39291,7 +39299,7 @@
         <v>-4.8009999999999997E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-3.986E-3</v>
       </c>
@@ -39401,7 +39409,7 @@
         <v>-4.8640000000000003E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-3.6050000000000001E-3</v>
       </c>
@@ -39511,7 +39519,7 @@
         <v>-5.0920000000000002E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-3.2669999999999999E-3</v>
       </c>
@@ -39621,7 +39629,7 @@
         <v>-5.0889999999999998E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-2.643E-3</v>
       </c>
@@ -39731,7 +39739,7 @@
         <v>-5.2630000000000003E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-2.4629999999999999E-3</v>
       </c>
@@ -39841,7 +39849,7 @@
         <v>-5.4679999999999998E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-2.078E-3</v>
       </c>
@@ -39951,7 +39959,7 @@
         <v>-5.5890000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-1.6919999999999999E-3</v>
       </c>
@@ -40061,7 +40069,7 @@
         <v>-5.8339999999999998E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-1.485E-3</v>
       </c>
@@ -40171,7 +40179,7 @@
         <v>-5.9449999999999998E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-1.14E-3</v>
       </c>
@@ -40281,7 +40289,7 @@
         <v>-6.1710000000000003E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-8.7900000000000001E-4</v>
       </c>
@@ -40391,7 +40399,7 @@
         <v>-6.3740000000000003E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-5.4799999999999998E-4</v>
       </c>
@@ -40501,7 +40509,7 @@
         <v>-6.6119999999999998E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-2.3800000000000001E-4</v>
       </c>
@@ -40611,7 +40619,7 @@
         <v>-6.8630000000000002E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1.34E-4</v>
       </c>
@@ -40721,7 +40729,7 @@
         <v>-7.0150000000000004E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3.7500000000000001E-4</v>
       </c>
@@ -40831,7 +40839,7 @@
         <v>-7.2430000000000003E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6.6699999999999995E-4</v>
       </c>
@@ -40941,7 +40949,7 @@
         <v>-7.417E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1.114E-3</v>
       </c>
@@ -41051,7 +41059,7 @@
         <v>-7.4549999999999998E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1.441E-3</v>
       </c>
@@ -41161,7 +41169,7 @@
         <v>-7.7029999999999998E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1.6999999999999999E-3</v>
       </c>
@@ -41271,7 +41279,7 @@
         <v>-7.7730000000000004E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2.042E-3</v>
       </c>
@@ -41381,7 +41389,7 @@
         <v>-7.8589999999999997E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2.3159999999999999E-3</v>
       </c>
@@ -41491,7 +41499,7 @@
         <v>-8.0210000000000004E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2.5990000000000002E-3</v>
       </c>
@@ -41601,7 +41609,7 @@
         <v>-7.79E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3.0370000000000002E-3</v>
       </c>
@@ -41711,7 +41719,7 @@
         <v>-7.9360000000000003E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2.7789999999999998E-3</v>
       </c>
@@ -41821,7 +41829,7 @@
         <v>-7.8399999999999997E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3.1800000000000001E-3</v>
       </c>
@@ -41931,7 +41939,7 @@
         <v>-7.6210000000000002E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3.2429999999999998E-3</v>
       </c>
@@ -42041,7 +42049,7 @@
         <v>-7.6220000000000003E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3.3E-3</v>
       </c>
@@ -42151,7 +42159,7 @@
         <v>-7.5810000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3.7139999999999999E-3</v>
       </c>
@@ -42261,7 +42269,7 @@
         <v>-7.2630000000000004E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3.6809999999999998E-3</v>
       </c>
@@ -42371,7 +42379,7 @@
         <v>-7.228E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4.0260000000000001E-3</v>
       </c>
@@ -42481,7 +42489,7 @@
         <v>-7.0239999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4.3899999999999998E-3</v>
       </c>
@@ -42591,7 +42599,7 @@
         <v>-6.8060000000000004E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4.1240000000000001E-3</v>
       </c>
@@ -42701,7 +42709,7 @@
         <v>-6.8009999999999998E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4.6990000000000001E-3</v>
       </c>
@@ -42811,7 +42819,7 @@
         <v>-6.3140000000000002E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4.6439999999999997E-3</v>
       </c>
@@ -42921,7 +42929,7 @@
         <v>-6.2779999999999997E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4.5259999999999996E-3</v>
       </c>
@@ -43031,7 +43039,7 @@
         <v>-6.1380000000000002E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5.1060000000000003E-3</v>
       </c>
@@ -43141,7 +43149,7 @@
         <v>-6.1289999999999999E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>5.0569999999999999E-3</v>
       </c>
@@ -43251,7 +43259,7 @@
         <v>-5.8500000000000002E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5.4549999999999998E-3</v>
       </c>
@@ -43361,7 +43369,7 @@
         <v>-5.8989999999999997E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>5.8859999999999997E-3</v>
       </c>
@@ -43471,7 +43479,7 @@
         <v>-5.8479999999999999E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>5.5999999999999999E-3</v>
       </c>
@@ -43581,7 +43589,7 @@
         <v>-5.8520000000000004E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>5.9820000000000003E-3</v>
       </c>

--- a/deployment/Omaha_Cal_Info_CP03ISSM_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CP03ISSM_00003.xlsx
@@ -2289,7 +2289,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2324,7 +2324,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2536,7 +2536,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2616,7 +2616,7 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="G2" s="142">
-        <v>42517</v>
+        <v>42504</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>177</v>
